--- a/ASHRAE901_ApartmentHighRise_STD2019_PortAngelesTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_PortAngelesTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1601.20</t>
+          <t>1802.04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>962.29</t>
+          <t>1644.86</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>472.93</t>
+          <t>712.80</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>723.63</t>
+          <t>1245.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>551.10</t>
+          <t>929.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>543.42</t>
+          <t>914.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>983.54</t>
+          <t>1117.77</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1008.56</t>
+          <t>1106.66</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2344.61</t>
+          <t>2554.83</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1728.17</t>
+          <t>2319.94</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1839.69</t>
+          <t>2048.92</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1310.41</t>
+          <t>1770.18</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>901.07</t>
+          <t>1196.19</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>887.28</t>
+          <t>1177.64</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1303.93</t>
+          <t>1447.12</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1292.67</t>
+          <t>1461.63</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2361.81</t>
+          <t>2572.87</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1797.62</t>
+          <t>2360.39</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1843.82</t>
+          <t>2027.60</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1368.25</t>
+          <t>1790.38</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1105.08</t>
+          <t>1256.16</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1050.22</t>
+          <t>1236.97</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1320.74</t>
+          <t>1452.84</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1310.50</t>
+          <t>1464.00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2363.83</t>
+          <t>2585.21</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1803.26</t>
+          <t>2371.23</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1830.29</t>
+          <t>2022.29</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1373.43</t>
+          <t>1786.46</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>987.79</t>
+          <t>1253.19</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>935.63</t>
+          <t>1234.03</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1324.81</t>
+          <t>1448.15</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1314.52</t>
+          <t>1459.61</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2358.50</t>
+          <t>2578.42</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>1800.65</t>
+          <t>2368.38</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>1825.10</t>
+          <t>2016.35</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1369.68</t>
+          <t>1780.08</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>946.59</t>
+          <t>1221.07</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>932.39</t>
+          <t>1202.37</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1324.70</t>
+          <t>1432.82</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1314.57</t>
+          <t>1445.45</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2352.09</t>
+          <t>2575.78</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>1794.84</t>
+          <t>2342.27</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>1826.83</t>
+          <t>2010.86</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1363.65</t>
+          <t>1773.77</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>943.75</t>
+          <t>1219.91</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>929.58</t>
+          <t>1200.93</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1323.68</t>
+          <t>1429.96</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1313.71</t>
+          <t>1438.61</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2347.37</t>
+          <t>2577.94</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>1747.53</t>
+          <t>2339.05</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>1822.24</t>
+          <t>2006.51</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1358.85</t>
+          <t>1772.55</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>941.93</t>
+          <t>1218.85</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>927.77</t>
+          <t>1200.22</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1323.28</t>
+          <t>1428.57</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1316.07</t>
+          <t>1437.26</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2345.66</t>
+          <t>2576.30</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>1748.43</t>
+          <t>2341.79</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>1834.07</t>
+          <t>2004.15</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>1358.03</t>
+          <t>1772.40</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>944.55</t>
+          <t>1223.73</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>930.45</t>
+          <t>1205.19</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1327.57</t>
+          <t>1430.65</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1320.41</t>
+          <t>1439.34</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>2444.74</t>
+          <t>2552.84</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>1854.13</t>
+          <t>2419.70</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>1855.49</t>
+          <t>2007.86</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1373.56</t>
+          <t>1785.60</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1000.85</t>
+          <t>1296.77</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>986.51</t>
+          <t>1278.24</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1384.69</t>
+          <t>1432.11</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1377.13</t>
+          <t>1476.76</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3362.28</t>
+          <t>3498.45</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>2356.75</t>
+          <t>3013.68</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>2636.99</t>
+          <t>2658.44</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>1588.67</t>
+          <t>2263.48</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1264.43</t>
+          <t>1736.81</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1266.04</t>
+          <t>1735.40</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2063.18</t>
+          <t>2177.83</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2079.95</t>
+          <t>2186.87</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1560.70</t>
+          <t>1828.97</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166.14</t>
+          <t>1763.41</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>352.25</t>
+          <t>820.48</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>136.89</t>
+          <t>1344.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>150.52</t>
+          <t>951.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>154.22</t>
+          <t>933.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>880.48</t>
+          <t>1104.69</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>862.67</t>
+          <t>1092.63</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1928.79</t>
+          <t>2519.45</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2092.99</t>
+          <t>2425.89</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1491.43</t>
+          <t>2052.85</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>995.47</t>
+          <t>1842.57</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1062.95</t>
+          <t>1289.52</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1043.12</t>
+          <t>1270.50</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1002.35</t>
+          <t>1440.40</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>990.95</t>
+          <t>1454.64</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1976.57</t>
+          <t>2517.06</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2129.63</t>
+          <t>2441.69</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1506.62</t>
+          <t>2036.10</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1580.84</t>
+          <t>1853.72</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1086.56</t>
+          <t>1302.48</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1066.54</t>
+          <t>1283.77</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1219.30</t>
+          <t>1449.14</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1093.59</t>
+          <t>1460.93</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>1980.97</t>
+          <t>2507.57</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2131.10</t>
+          <t>2437.24</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1507.26</t>
+          <t>2029.38</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1583.52</t>
+          <t>1842.34</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1089.22</t>
+          <t>1248.36</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1069.23</t>
+          <t>1227.80</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1244.14</t>
+          <t>1437.77</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1222.50</t>
+          <t>1455.15</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2208.46</t>
+          <t>2498.56</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2124.54</t>
+          <t>2430.50</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1499.50</t>
+          <t>2022.66</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>1576.87</t>
+          <t>1831.45</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1086.51</t>
+          <t>1246.32</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1066.56</t>
+          <t>1225.70</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1212.29</t>
+          <t>1413.54</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1199.43</t>
+          <t>1428.83</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>1977.50</t>
+          <t>2488.60</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2115.13</t>
+          <t>2424.45</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>1727.89</t>
+          <t>2014.88</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>1159.47</t>
+          <t>1821.83</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1081.96</t>
+          <t>1243.97</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1062.06</t>
+          <t>1223.34</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1207.69</t>
+          <t>1410.85</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1195.02</t>
+          <t>1419.55</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>1972.94</t>
+          <t>2483.55</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>2105.93</t>
+          <t>2420.41</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>1712.88</t>
+          <t>2008.49</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>659.77</t>
+          <t>1817.89</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>1077.66</t>
+          <t>1259.44</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>1057.82</t>
+          <t>1238.54</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1202.53</t>
+          <t>1409.71</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1192.70</t>
+          <t>1418.56</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>1969.15</t>
+          <t>2485.66</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>2101.12</t>
+          <t>2421.82</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>1708.13</t>
+          <t>2007.27</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>324.50</t>
+          <t>1815.86</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>1077.82</t>
+          <t>1263.04</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>858.02</t>
+          <t>1242.24</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1199.49</t>
+          <t>1412.19</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1190.05</t>
+          <t>1421.12</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>2053.59</t>
+          <t>2562.62</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>2179.61</t>
+          <t>2506.76</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>1740.56</t>
+          <t>2018.23</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>563.33</t>
+          <t>1829.42</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>1141.42</t>
+          <t>1332.86</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>1030.97</t>
+          <t>1311.79</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1243.64</t>
+          <t>1416.09</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1231.39</t>
+          <t>1460.99</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>2675.80</t>
+          <t>3381.90</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>2409.53</t>
+          <t>3161.19</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>2037.12</t>
+          <t>2664.05</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>1558.44</t>
+          <t>2345.55</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>1517.21</t>
+          <t>1809.52</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>1509.65</t>
+          <t>1809.29</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>1791.04</t>
+          <t>2151.03</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>1795.85</t>
+          <t>2167.05</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1371.18</t>
+          <t>1838.71</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1201.63</t>
+          <t>1729.85</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>339.69</t>
+          <t>775.94</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>908.23</t>
+          <t>1281.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>690.92</t>
+          <t>977.51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>683.72</t>
+          <t>962.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>756.36</t>
+          <t>1080.47</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>742.99</t>
+          <t>1069.12</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2059.85</t>
+          <t>2572.75</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1777.86</t>
+          <t>2436.38</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1586.99</t>
+          <t>2020.58</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1338.61</t>
+          <t>1789.54</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>893.69</t>
+          <t>1222.02</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>880.04</t>
+          <t>1204.26</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1023.77</t>
+          <t>1391.12</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1014.37</t>
+          <t>1404.82</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2084.59</t>
+          <t>2571.45</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1801.43</t>
+          <t>2444.54</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1602.31</t>
+          <t>2006.59</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1370.59</t>
+          <t>1797.04</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>922.63</t>
+          <t>1233.52</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>918.07</t>
+          <t>1215.33</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1043.61</t>
+          <t>1404.19</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1068.23</t>
+          <t>1413.19</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2088.54</t>
+          <t>2566.03</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>1804.90</t>
+          <t>2436.91</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1598.41</t>
+          <t>2003.39</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1373.82</t>
+          <t>1787.81</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>935.25</t>
+          <t>1230.86</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>922.25</t>
+          <t>1213.12</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1047.08</t>
+          <t>1399.67</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1064.16</t>
+          <t>1409.08</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2086.51</t>
+          <t>2559.42</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>1809.54</t>
+          <t>2427.80</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1600.66</t>
+          <t>2000.28</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1368.23</t>
+          <t>1785.14</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>929.04</t>
+          <t>1225.34</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>920.31</t>
+          <t>1208.13</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1037.44</t>
+          <t>1387.49</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1030.98</t>
+          <t>1396.58</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2083.21</t>
+          <t>2548.02</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>1804.73</t>
+          <t>2419.58</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>1612.04</t>
+          <t>1994.49</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1362.51</t>
+          <t>1781.91</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>917.26</t>
+          <t>1220.89</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>916.75</t>
+          <t>1202.84</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>996.86</t>
+          <t>1363.36</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>987.44</t>
+          <t>1372.33</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2081.26</t>
+          <t>2543.43</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>1802.66</t>
+          <t>2411.41</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>1615.11</t>
+          <t>1990.42</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1358.19</t>
+          <t>1782.77</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>913.20</t>
+          <t>1218.13</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>914.50</t>
+          <t>1199.85</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>983.98</t>
+          <t>1358.88</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>977.38</t>
+          <t>1367.87</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2082.85</t>
+          <t>2543.62</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>1805.93</t>
+          <t>2411.21</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>1618.98</t>
+          <t>1992.74</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1359.97</t>
+          <t>1785.31</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>922.80</t>
+          <t>1221.81</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>920.97</t>
+          <t>1203.28</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>986.06</t>
+          <t>1360.27</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>979.58</t>
+          <t>1369.08</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2159.49</t>
+          <t>2617.97</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>1879.82</t>
+          <t>2489.95</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>1650.42</t>
+          <t>2014.51</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>1391.34</t>
+          <t>1806.94</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>987.17</t>
+          <t>1288.14</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>983.00</t>
+          <t>1273.65</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1067.25</t>
+          <t>1367.11</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1059.22</t>
+          <t>1409.59</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>2955.68</t>
+          <t>3424.07</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>2573.39</t>
+          <t>3224.53</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2359.87</t>
+          <t>2702.51</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>1970.92</t>
+          <t>2388.07</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>1404.12</t>
+          <t>1773.78</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>1409.71</t>
+          <t>1770.26</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>1800.66</t>
+          <t>2168.67</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>1816.13</t>
+          <t>2176.25</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1279.47</t>
+          <t>1792.65</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1243.71</t>
+          <t>1715.51</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>304.04</t>
+          <t>780.09</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>945.07</t>
+          <t>1291.68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>719.96</t>
+          <t>984.63</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>727.83</t>
+          <t>970.28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>757.33</t>
+          <t>1051.52</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>807.09</t>
+          <t>1042.64</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1915.96</t>
+          <t>2494.31</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1855.65</t>
+          <t>2368.92</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1475.61</t>
+          <t>2022.57</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1333.96</t>
+          <t>1819.62</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>970.38</t>
+          <t>1215.04</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>973.56</t>
+          <t>1198.29</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>998.34</t>
+          <t>1337.30</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1011.30</t>
+          <t>1351.17</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>1922.71</t>
+          <t>2495.29</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1865.18</t>
+          <t>2378.99</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1463.56</t>
+          <t>2003.21</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1351.15</t>
+          <t>1823.73</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1001.28</t>
+          <t>1227.87</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1001.36</t>
+          <t>1211.16</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1036.87</t>
+          <t>1345.90</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1040.10</t>
+          <t>1356.81</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>1913.18</t>
+          <t>2488.58</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>1861.49</t>
+          <t>2371.21</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1446.46</t>
+          <t>1990.44</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1346.07</t>
+          <t>1810.50</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1001.68</t>
+          <t>1228.84</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1005.54</t>
+          <t>1212.21</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1021.65</t>
+          <t>1345.20</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1030.87</t>
+          <t>1355.09</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>1906.79</t>
+          <t>2481.79</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>1856.30</t>
+          <t>2369.14</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1447.90</t>
+          <t>1980.11</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1384.39</t>
+          <t>1801.96</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>998.88</t>
+          <t>1222.07</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>999.11</t>
+          <t>1206.84</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1016.17</t>
+          <t>1336.01</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1024.78</t>
+          <t>1347.28</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>1901.44</t>
+          <t>2485.33</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>1851.35</t>
+          <t>2366.67</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>1438.59</t>
+          <t>1970.74</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1374.80</t>
+          <t>1799.27</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>992.79</t>
+          <t>1216.63</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>992.26</t>
+          <t>1199.92</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1009.01</t>
+          <t>1337.56</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1013.50</t>
+          <t>1348.15</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>1897.16</t>
+          <t>2469.94</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>1847.42</t>
+          <t>2365.76</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>1431.75</t>
+          <t>1962.71</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1368.16</t>
+          <t>1795.10</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>986.50</t>
+          <t>1211.25</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>986.34</t>
+          <t>1197.24</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1002.72</t>
+          <t>1334.80</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1008.93</t>
+          <t>1346.01</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>1897.14</t>
+          <t>2472.09</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>1847.90</t>
+          <t>2369.62</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>1430.48</t>
+          <t>1960.31</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1366.64</t>
+          <t>1794.57</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>984.10</t>
+          <t>1211.72</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>985.04</t>
+          <t>1193.34</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>997.85</t>
+          <t>1337.05</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1002.71</t>
+          <t>1346.77</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>1970.49</t>
+          <t>2552.30</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>1918.11</t>
+          <t>2449.56</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>1460.06</t>
+          <t>1985.10</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>1394.01</t>
+          <t>1807.34</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1012.18</t>
+          <t>1281.33</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1016.40</t>
+          <t>1264.24</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1026.55</t>
+          <t>1348.23</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1029.09</t>
+          <t>1400.33</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>2673.28</t>
+          <t>3289.10</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>2533.02</t>
+          <t>3091.65</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2110.38</t>
+          <t>2680.68</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>1872.39</t>
+          <t>2415.13</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1332.44</t>
+          <t>1752.84</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1335.70</t>
+          <t>1756.36</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>1631.49</t>
+          <t>2130.49</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>1641.00</t>
+          <t>2145.42</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1442.19</t>
+          <t>1766.77</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1419.52</t>
+          <t>1706.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>469.80</t>
+          <t>1016.66</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1057.34</t>
+          <t>1313.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>795.24</t>
+          <t>955.60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>786.93</t>
+          <t>942.86</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>785.45</t>
+          <t>995.85</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>777.96</t>
+          <t>992.38</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2083.77</t>
+          <t>2463.55</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2046.68</t>
+          <t>2367.48</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1634.58</t>
+          <t>2014.21</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1521.97</t>
+          <t>1834.85</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1030.04</t>
+          <t>1210.39</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1015.91</t>
+          <t>1195.06</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1008.69</t>
+          <t>1311.82</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1004.58</t>
+          <t>1329.80</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2100.92</t>
+          <t>2461.11</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2062.01</t>
+          <t>2373.26</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1630.57</t>
+          <t>1983.41</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1539.28</t>
+          <t>1844.20</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1043.47</t>
+          <t>1230.47</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1029.00</t>
+          <t>1215.02</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1018.59</t>
+          <t>1327.73</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1011.56</t>
+          <t>1341.87</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2103.70</t>
+          <t>2453.91</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2060.70</t>
+          <t>2367.72</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>1629.73</t>
+          <t>1970.16</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>1539.63</t>
+          <t>1838.12</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1041.63</t>
+          <t>1237.06</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1029.25</t>
+          <t>1221.00</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1014.82</t>
+          <t>1329.91</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1009.18</t>
+          <t>1340.81</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2103.42</t>
+          <t>2441.87</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2056.84</t>
+          <t>2356.09</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1628.28</t>
+          <t>1961.02</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>1534.23</t>
+          <t>1831.22</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1036.30</t>
+          <t>1234.84</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1024.35</t>
+          <t>1218.76</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1009.39</t>
+          <t>1326.97</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1002.62</t>
+          <t>1337.45</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2102.12</t>
+          <t>2437.83</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2052.85</t>
+          <t>2350.56</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>1633.71</t>
+          <t>1954.88</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>1528.91</t>
+          <t>1824.98</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1017.54</t>
+          <t>1232.87</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1021.40</t>
+          <t>1216.87</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1010.09</t>
+          <t>1324.61</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>996.27</t>
+          <t>1334.94</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2101.31</t>
+          <t>2435.02</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2049.72</t>
+          <t>2346.46</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>1633.90</t>
+          <t>1950.36</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1524.04</t>
+          <t>1824.11</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1021.50</t>
+          <t>1231.79</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>996.44</t>
+          <t>1215.91</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1015.91</t>
+          <t>1323.48</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1001.43</t>
+          <t>1333.68</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2104.85</t>
+          <t>2437.52</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2051.32</t>
+          <t>2354.04</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>1637.11</t>
+          <t>1952.50</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>1523.83</t>
+          <t>1824.69</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1025.98</t>
+          <t>1235.95</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1008.06</t>
+          <t>1219.94</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1017.82</t>
+          <t>1326.80</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1011.66</t>
+          <t>1336.60</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2178.77</t>
+          <t>2518.03</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2124.19</t>
+          <t>2431.78</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>1657.84</t>
+          <t>1973.92</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>1541.83</t>
+          <t>1836.43</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1092.03</t>
+          <t>1299.75</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1077.57</t>
+          <t>1288.21</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1084.14</t>
+          <t>1329.31</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1074.84</t>
+          <t>1378.59</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>2824.94</t>
+          <t>3147.09</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>2692.32</t>
+          <t>3062.62</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2315.33</t>
+          <t>2635.28</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2065.05</t>
+          <t>2410.54</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>1466.59</t>
+          <t>1730.85</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>1470.58</t>
+          <t>1738.10</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>1710.51</t>
+          <t>2064.63</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>1723.47</t>
+          <t>2076.82</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1150.59</t>
+          <t>1647.67</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1158.39</t>
+          <t>1601.71</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>942.72</t>
+          <t>1238.74</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>846.86</t>
+          <t>1256.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>609.68</t>
+          <t>926.73</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>603.69</t>
+          <t>919.27</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>619.38</t>
+          <t>951.79</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>616.11</t>
+          <t>944.52</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1767.87</t>
+          <t>2294.73</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1763.82</t>
+          <t>2226.10</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1364.71</t>
+          <t>1913.41</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1282.51</t>
+          <t>1766.60</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>815.39</t>
+          <t>1168.81</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>803.09</t>
+          <t>1160.36</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>817.01</t>
+          <t>1252.76</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>814.34</t>
+          <t>1271.34</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1761.80</t>
+          <t>2294.21</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1758.04</t>
+          <t>2215.04</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1333.70</t>
+          <t>1883.00</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1288.59</t>
+          <t>1771.03</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>824.55</t>
+          <t>1177.14</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>811.50</t>
+          <t>1169.02</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>823.78</t>
+          <t>1256.99</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>817.28</t>
+          <t>1272.76</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>1754.34</t>
+          <t>2289.43</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>1748.09</t>
+          <t>2213.12</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1319.76</t>
+          <t>1873.21</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1286.68</t>
+          <t>1766.98</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>824.80</t>
+          <t>1176.78</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>811.79</t>
+          <t>1168.78</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>823.33</t>
+          <t>1255.39</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>815.92</t>
+          <t>1269.98</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>1747.92</t>
+          <t>2284.88</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>1740.18</t>
+          <t>2209.37</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1311.50</t>
+          <t>1868.08</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1280.79</t>
+          <t>1763.29</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>823.17</t>
+          <t>1175.85</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>810.21</t>
+          <t>1167.90</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>821.29</t>
+          <t>1253.99</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>813.65</t>
+          <t>1268.20</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>1742.03</t>
+          <t>2281.52</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>1733.10</t>
+          <t>2206.09</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1308.58</t>
+          <t>1864.95</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1274.93</t>
+          <t>1759.45</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>821.09</t>
+          <t>1175.13</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>808.16</t>
+          <t>1167.17</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>818.78</t>
+          <t>1253.08</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>811.15</t>
+          <t>1267.18</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>1736.04</t>
+          <t>2280.60</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>1727.46</t>
+          <t>2212.55</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1301.85</t>
+          <t>1862.98</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1268.54</t>
+          <t>1759.97</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>818.65</t>
+          <t>1174.59</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>805.72</t>
+          <t>1166.52</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>815.89</t>
+          <t>1252.63</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>810.85</t>
+          <t>1266.52</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>1731.76</t>
+          <t>2282.40</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>1723.31</t>
+          <t>2221.61</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1295.00</t>
+          <t>1863.90</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1262.25</t>
+          <t>1760.24</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>818.37</t>
+          <t>1177.22</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>805.40</t>
+          <t>1168.83</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>814.92</t>
+          <t>1254.44</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>809.85</t>
+          <t>1267.55</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>1791.81</t>
+          <t>2363.93</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>1785.64</t>
+          <t>2297.16</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>1298.13</t>
+          <t>1881.42</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>1263.07</t>
+          <t>1763.80</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>863.45</t>
+          <t>1236.94</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>853.67</t>
+          <t>1227.54</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>848.22</t>
+          <t>1251.93</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>842.39</t>
+          <t>1302.10</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2323.22</t>
+          <t>2841.37</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>2404.70</t>
+          <t>2975.06</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>1816.05</t>
+          <t>2448.27</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>1753.27</t>
+          <t>2267.54</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1221.02</t>
+          <t>1630.88</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1236.73</t>
+          <t>1640.21</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1364.53</t>
+          <t>1918.54</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1382.86</t>
+          <t>1934.10</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1243.73</t>
+          <t>1660.34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1229.76</t>
+          <t>1612.99</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1004.09</t>
+          <t>1443.63</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>931.92</t>
+          <t>1258.58</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>660.38</t>
+          <t>917.51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>661.45</t>
+          <t>909.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>663.47</t>
+          <t>944.92</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>665.36</t>
+          <t>939.40</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1825.36</t>
+          <t>2307.97</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1803.03</t>
+          <t>2240.79</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1458.93</t>
+          <t>1905.46</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1369.19</t>
+          <t>1770.85</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>881.74</t>
+          <t>1171.00</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>878.68</t>
+          <t>1165.62</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>875.81</t>
+          <t>1253.51</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>881.58</t>
+          <t>1276.11</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1817.06</t>
+          <t>2305.06</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1800.96</t>
+          <t>2244.31</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1433.53</t>
+          <t>1882.84</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1374.92</t>
+          <t>1777.24</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>889.68</t>
+          <t>1181.81</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>887.29</t>
+          <t>1176.63</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>881.54</t>
+          <t>1259.87</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>885.07</t>
+          <t>1278.92</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>1807.94</t>
+          <t>2310.47</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>1792.69</t>
+          <t>2256.51</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1421.52</t>
+          <t>1877.31</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1373.15</t>
+          <t>1773.70</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>888.72</t>
+          <t>1184.63</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>886.53</t>
+          <t>1177.97</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>880.03</t>
+          <t>1259.78</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>882.68</t>
+          <t>1278.93</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>1799.88</t>
+          <t>2324.30</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>1785.17</t>
+          <t>2254.20</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1414.52</t>
+          <t>1873.39</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1367.93</t>
+          <t>1775.16</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>886.82</t>
+          <t>1185.69</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>884.64</t>
+          <t>1178.29</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>877.81</t>
+          <t>1259.74</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>880.14</t>
+          <t>1280.68</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>1792.88</t>
+          <t>2326.73</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>1778.62</t>
+          <t>2252.27</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1412.91</t>
+          <t>1872.84</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1362.98</t>
+          <t>1773.72</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>884.66</t>
+          <t>1186.69</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>882.40</t>
+          <t>1178.56</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>875.29</t>
+          <t>1260.96</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>877.42</t>
+          <t>1282.94</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>1787.09</t>
+          <t>2324.78</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>1773.20</t>
+          <t>2251.72</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1407.27</t>
+          <t>1873.55</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1357.58</t>
+          <t>1777.88</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>881.87</t>
+          <t>1187.97</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>879.40</t>
+          <t>1178.83</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>871.86</t>
+          <t>1262.92</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>876.45</t>
+          <t>1284.36</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>1785.36</t>
+          <t>2326.49</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>1771.75</t>
+          <t>2255.41</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1401.45</t>
+          <t>1871.18</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>1352.30</t>
+          <t>1779.01</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>880.31</t>
+          <t>1191.59</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>877.37</t>
+          <t>1182.20</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>868.67</t>
+          <t>1265.22</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>872.57</t>
+          <t>1285.25</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>1854.07</t>
+          <t>2408.12</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>1837.76</t>
+          <t>2332.87</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1398.61</t>
+          <t>1889.99</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>1346.53</t>
+          <t>1775.25</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>926.86</t>
+          <t>1252.93</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>922.54</t>
+          <t>1244.96</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>911.29</t>
+          <t>1265.01</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>910.35</t>
+          <t>1311.13</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2370.64</t>
+          <t>2821.08</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>2442.52</t>
+          <t>2946.10</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>1886.98</t>
+          <t>2453.23</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>1807.47</t>
+          <t>2274.19</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1257.31</t>
+          <t>1661.65</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1273.27</t>
+          <t>1677.25</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1416.84</t>
+          <t>1955.96</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1434.48</t>
+          <t>1972.13</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1261.99</t>
+          <t>1684.11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1221.37</t>
+          <t>1620.57</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1184.89</t>
+          <t>1549.96</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>928.84</t>
+          <t>1270.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>652.93</t>
+          <t>926.11</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>654.43</t>
+          <t>919.13</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>671.66</t>
+          <t>966.51</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>672.68</t>
+          <t>958.02</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1873.01</t>
+          <t>2320.80</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1785.77</t>
+          <t>2235.81</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1492.71</t>
+          <t>1939.85</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1357.79</t>
+          <t>1782.44</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>870.07</t>
+          <t>1170.91</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>867.92</t>
+          <t>1163.11</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>880.81</t>
+          <t>1273.50</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>887.26</t>
+          <t>1294.06</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1853.27</t>
+          <t>2319.60</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1783.16</t>
+          <t>2227.30</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1460.68</t>
+          <t>1919.13</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1359.92</t>
+          <t>1786.14</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>878.43</t>
+          <t>1179.25</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>876.44</t>
+          <t>1171.51</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>884.91</t>
+          <t>1277.32</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>889.73</t>
+          <t>1296.24</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>1839.87</t>
+          <t>2320.90</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>1776.77</t>
+          <t>2229.98</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1444.85</t>
+          <t>1908.91</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1355.47</t>
+          <t>1779.64</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>877.77</t>
+          <t>1178.92</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>876.05</t>
+          <t>1171.19</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>882.18</t>
+          <t>1275.51</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>886.34</t>
+          <t>1293.62</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>1829.96</t>
+          <t>2323.43</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>1772.02</t>
+          <t>2233.04</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1434.83</t>
+          <t>1904.00</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1348.37</t>
+          <t>1774.18</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>876.03</t>
+          <t>1178.23</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>874.36</t>
+          <t>1170.48</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>879.00</t>
+          <t>1274.19</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>882.89</t>
+          <t>1291.92</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>1821.66</t>
+          <t>2326.30</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>1767.73</t>
+          <t>2236.22</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1430.51</t>
+          <t>1902.21</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1343.16</t>
+          <t>1769.74</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>873.96</t>
+          <t>1177.87</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>872.25</t>
+          <t>1170.07</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>875.78</t>
+          <t>1274.06</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>879.46</t>
+          <t>1290.97</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>1813.99</t>
+          <t>2329.56</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>1762.58</t>
+          <t>2239.69</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1422.67</t>
+          <t>1898.89</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1337.44</t>
+          <t>1769.73</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>871.12</t>
+          <t>1177.80</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>869.31</t>
+          <t>1169.84</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>871.87</t>
+          <t>1273.80</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>877.93</t>
+          <t>1290.36</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>1808.36</t>
+          <t>2337.24</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>1756.93</t>
+          <t>2247.32</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>1414.26</t>
+          <t>1897.67</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1331.53</t>
+          <t>1768.93</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>869.05</t>
+          <t>1181.22</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>867.10</t>
+          <t>1172.97</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>868.52</t>
+          <t>1275.67</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>873.95</t>
+          <t>1291.38</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>1867.60</t>
+          <t>2429.48</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>1791.37</t>
+          <t>2335.51</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>1411.05</t>
+          <t>1907.74</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1326.47</t>
+          <t>1770.23</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>912.15</t>
+          <t>1242.17</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>909.46</t>
+          <t>1233.22</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>910.05</t>
+          <t>1270.60</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>911.04</t>
+          <t>1323.71</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2373.32</t>
+          <t>2839.39</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2360.18</t>
+          <t>2921.28</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>1944.05</t>
+          <t>2476.10</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>1776.84</t>
+          <t>2271.66</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1235.15</t>
+          <t>1649.85</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1254.11</t>
+          <t>1662.24</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1478.43</t>
+          <t>1945.93</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1501.18</t>
+          <t>1961.50</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1346.53</t>
+          <t>1763.59</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1246.11</t>
+          <t>1716.73</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1141.02</t>
+          <t>1579.30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1049.74</t>
+          <t>1324.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>766.54</t>
+          <t>976.36</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>765.27</t>
+          <t>968.41</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>799.41</t>
+          <t>1040.97</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>799.01</t>
+          <t>1029.90</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1933.81</t>
+          <t>2420.55</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1812.58</t>
+          <t>2352.97</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1596.41</t>
+          <t>1982.27</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1473.58</t>
+          <t>1824.06</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>991.54</t>
+          <t>1228.13</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>984.71</t>
+          <t>1216.54</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1015.63</t>
+          <t>1351.94</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1019.28</t>
+          <t>1369.69</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>1924.47</t>
+          <t>2415.53</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>1799.27</t>
+          <t>2357.71</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1570.21</t>
+          <t>1936.94</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1477.51</t>
+          <t>1823.76</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>998.70</t>
+          <t>1235.52</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>992.09</t>
+          <t>1221.49</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1019.75</t>
+          <t>1350.34</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1021.02</t>
+          <t>1365.82</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>1916.88</t>
+          <t>2411.43</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>1791.38</t>
+          <t>2355.34</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1558.57</t>
+          <t>1922.62</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1475.75</t>
+          <t>1814.79</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>997.76</t>
+          <t>1236.00</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>991.21</t>
+          <t>1220.85</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1017.87</t>
+          <t>1345.61</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1018.23</t>
+          <t>1359.97</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>1911.06</t>
+          <t>2407.76</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>1786.53</t>
+          <t>2354.98</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1551.77</t>
+          <t>1915.22</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1470.86</t>
+          <t>1808.42</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>996.04</t>
+          <t>1235.46</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>989.46</t>
+          <t>1221.25</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1015.57</t>
+          <t>1341.49</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1015.56</t>
+          <t>1356.02</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>1906.31</t>
+          <t>2404.75</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>1782.66</t>
+          <t>2355.05</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>1550.59</t>
+          <t>1910.17</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1466.51</t>
+          <t>1803.10</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>994.26</t>
+          <t>1235.19</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>987.62</t>
+          <t>1220.53</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1013.20</t>
+          <t>1338.57</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1012.96</t>
+          <t>1353.05</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>1901.83</t>
+          <t>2402.80</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>1778.25</t>
+          <t>2355.16</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>1545.51</t>
+          <t>1906.70</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1462.11</t>
+          <t>1802.87</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>992.04</t>
+          <t>1234.97</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>985.21</t>
+          <t>1220.04</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1009.99</t>
+          <t>1337.47</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1012.30</t>
+          <t>1351.71</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>1899.50</t>
+          <t>2405.54</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>1773.67</t>
+          <t>2357.93</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>1540.26</t>
+          <t>1907.06</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1458.23</t>
+          <t>1803.53</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>990.83</t>
+          <t>1239.61</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>983.42</t>
+          <t>1224.70</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1006.50</t>
+          <t>1339.57</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1008.09</t>
+          <t>1351.24</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>1958.90</t>
+          <t>2482.82</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>1820.46</t>
+          <t>2434.36</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>1533.10</t>
+          <t>1927.45</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>1437.66</t>
+          <t>1811.98</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1025.04</t>
+          <t>1308.42</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1027.99</t>
+          <t>1292.42</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1048.68</t>
+          <t>1334.93</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1045.12</t>
+          <t>1386.53</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2476.03</t>
+          <t>3068.19</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2380.30</t>
+          <t>2985.23</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2036.74</t>
+          <t>2519.73</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>1848.02</t>
+          <t>2310.24</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1284.08</t>
+          <t>1717.56</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1296.48</t>
+          <t>1717.58</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>1553.13</t>
+          <t>2024.25</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>1571.47</t>
+          <t>2035.33</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1663.19</t>
+          <t>1801.55</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1629.36</t>
+          <t>1709.91</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1316.48</t>
+          <t>1717.09</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1253.30</t>
+          <t>1341.72</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>906.99</t>
+          <t>980.53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>898.36</t>
+          <t>970.41</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>948.88</t>
+          <t>1121.40</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>945.28</t>
+          <t>1112.93</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2346.30</t>
+          <t>2478.94</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2267.90</t>
+          <t>2343.41</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1807.47</t>
+          <t>2079.36</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1750.39</t>
+          <t>1844.09</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1149.22</t>
+          <t>1236.79</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1133.54</t>
+          <t>1220.87</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1179.36</t>
+          <t>1391.37</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1177.06</t>
+          <t>1461.60</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2323.70</t>
+          <t>2461.65</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2299.82</t>
+          <t>2344.25</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>1918.78</t>
+          <t>2030.57</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>1766.51</t>
+          <t>1839.85</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1163.77</t>
+          <t>1243.09</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1150.01</t>
+          <t>1228.60</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1183.74</t>
+          <t>1382.86</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1177.78</t>
+          <t>1396.83</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2318.32</t>
+          <t>2456.51</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2323.22</t>
+          <t>2340.84</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>1900.81</t>
+          <t>2004.78</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>1765.72</t>
+          <t>1829.85</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1169.28</t>
+          <t>1242.04</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1150.44</t>
+          <t>1227.04</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1250.82</t>
+          <t>1374.23</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1173.22</t>
+          <t>1390.35</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2314.05</t>
+          <t>2451.71</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2305.05</t>
+          <t>2335.07</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>1891.70</t>
+          <t>1997.30</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>1759.75</t>
+          <t>1823.91</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1189.89</t>
+          <t>1240.55</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1154.53</t>
+          <t>1224.44</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1241.54</t>
+          <t>1373.92</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1238.35</t>
+          <t>1392.05</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2310.07</t>
+          <t>2448.13</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2292.48</t>
+          <t>2331.94</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>1879.43</t>
+          <t>1990.98</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>1757.57</t>
+          <t>1824.69</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1172.16</t>
+          <t>1239.31</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1172.65</t>
+          <t>1222.86</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1227.01</t>
+          <t>1370.03</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1230.05</t>
+          <t>1408.38</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2306.83</t>
+          <t>2446.33</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2276.36</t>
+          <t>2330.25</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>1875.09</t>
+          <t>1986.29</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1755.14</t>
+          <t>1822.32</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1167.81</t>
+          <t>1238.63</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1155.46</t>
+          <t>1222.08</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1217.24</t>
+          <t>1360.60</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1218.22</t>
+          <t>1378.86</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>2307.96</t>
+          <t>2447.92</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2277.13</t>
+          <t>2333.47</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>1867.45</t>
+          <t>1985.51</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>1757.61</t>
+          <t>1822.58</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1162.63</t>
+          <t>1239.19</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1156.14</t>
+          <t>1226.52</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1215.42</t>
+          <t>1360.99</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1210.80</t>
+          <t>1371.50</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>2377.26</t>
+          <t>2527.17</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>2347.51</t>
+          <t>2410.57</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>1876.61</t>
+          <t>2003.88</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>1771.54</t>
+          <t>1834.25</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1227.21</t>
+          <t>1300.32</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1212.27</t>
+          <t>1289.35</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1258.14</t>
+          <t>1354.66</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1249.05</t>
+          <t>1410.99</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3006.69</t>
+          <t>3151.27</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3017.23</t>
+          <t>3041.89</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>2437.44</t>
+          <t>2629.61</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>2436.85</t>
+          <t>2408.23</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>1662.49</t>
+          <t>1723.06</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>1694.56</t>
+          <t>1727.91</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>1861.70</t>
+          <t>2101.71</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>1875.14</t>
+          <t>2117.56</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1870.81</t>
+          <t>1764.17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1682.83</t>
+          <t>1724.17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1027.38</t>
+          <t>1444.76</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1295.08</t>
+          <t>1297.40</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>970.00</t>
+          <t>1002.08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>959.85</t>
+          <t>989.43</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1065.45</t>
+          <t>1101.06</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1055.80</t>
+          <t>1091.23</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2614.97</t>
+          <t>2551.84</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2335.88</t>
+          <t>2378.04</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2037.25</t>
+          <t>2060.81</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1789.14</t>
+          <t>1814.53</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1223.65</t>
+          <t>1248.04</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1206.38</t>
+          <t>1233.64</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1323.65</t>
+          <t>1413.19</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1325.01</t>
+          <t>1428.51</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2612.39</t>
+          <t>2458.04</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2348.04</t>
+          <t>2384.65</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2009.57</t>
+          <t>2034.24</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>1799.22</t>
+          <t>1819.77</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1232.73</t>
+          <t>1260.73</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1215.26</t>
+          <t>1247.24</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1325.32</t>
+          <t>1416.40</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1320.21</t>
+          <t>1427.12</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2602.38</t>
+          <t>2455.13</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2264.29</t>
+          <t>2380.91</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2022.35</t>
+          <t>2025.20</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>1789.01</t>
+          <t>1811.35</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1228.28</t>
+          <t>1242.90</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1210.62</t>
+          <t>1244.94</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1319.89</t>
+          <t>1407.25</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1309.83</t>
+          <t>1416.94</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>2587.22</t>
+          <t>2431.00</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2261.89</t>
+          <t>2374.33</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2007.35</t>
+          <t>2019.01</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>1721.38</t>
+          <t>1804.00</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1220.98</t>
+          <t>1252.47</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1203.46</t>
+          <t>1241.07</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1325.66</t>
+          <t>1401.77</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1302.93</t>
+          <t>1416.21</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>2596.48</t>
+          <t>2426.47</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2258.17</t>
+          <t>2369.95</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>1975.84</t>
+          <t>2009.72</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>1715.48</t>
+          <t>1797.90</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1176.42</t>
+          <t>1251.62</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1159.03</t>
+          <t>1230.35</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1296.42</t>
+          <t>1407.41</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1286.57</t>
+          <t>1421.14</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>2538.12</t>
+          <t>2423.08</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2255.32</t>
+          <t>2366.75</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>1969.60</t>
+          <t>2005.79</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1710.84</t>
+          <t>1795.46</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1173.13</t>
+          <t>1250.47</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1155.41</t>
+          <t>1232.04</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1293.53</t>
+          <t>1413.78</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1286.75</t>
+          <t>1420.11</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>2464.75</t>
+          <t>2423.75</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2258.19</t>
+          <t>2361.03</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>1964.51</t>
+          <t>2005.55</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>1711.92</t>
+          <t>1796.07</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1177.23</t>
+          <t>1254.08</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1159.48</t>
+          <t>1235.60</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1295.95</t>
+          <t>1416.89</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1289.76</t>
+          <t>1429.34</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>2542.56</t>
+          <t>2499.03</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>2338.97</t>
+          <t>2444.01</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>1981.38</t>
+          <t>2038.61</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>1733.32</t>
+          <t>1807.89</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>1251.17</t>
+          <t>1326.49</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1233.38</t>
+          <t>1307.77</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>1367.36</t>
+          <t>1379.65</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>1355.77</t>
+          <t>1427.90</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>3453.25</t>
+          <t>3286.38</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>2872.79</t>
+          <t>3123.44</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>2676.00</t>
+          <t>2667.17</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2221.78</t>
+          <t>2391.48</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>1641.66</t>
+          <t>1764.22</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>1645.88</t>
+          <t>1770.69</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2127.82</t>
+          <t>2114.95</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2141.25</t>
+          <t>2127.73</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1800.08</t>
+          <t>1820.49</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1522.74</t>
+          <t>1746.14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>467.17</t>
+          <t>688.35</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1156.82</t>
+          <t>1289.99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>876.49</t>
+          <t>980.36</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>865.67</t>
+          <t>964.18</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1049.62</t>
+          <t>1124.96</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1051.78</t>
+          <t>1114.34</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2589.36</t>
+          <t>2518.64</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2131.63</t>
+          <t>2444.59</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2052.01</t>
+          <t>2051.57</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1614.97</t>
+          <t>1783.89</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1193.76</t>
+          <t>1229.89</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1175.10</t>
+          <t>1210.74</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1341.24</t>
+          <t>1449.52</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1332.73</t>
+          <t>1465.83</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2599.06</t>
+          <t>2521.40</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2146.95</t>
+          <t>2463.53</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2041.71</t>
+          <t>2017.21</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1629.81</t>
+          <t>1803.53</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1211.62</t>
+          <t>1247.26</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1192.81</t>
+          <t>1227.23</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1354.35</t>
+          <t>1463.38</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1343.55</t>
+          <t>1474.64</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2592.45</t>
+          <t>2516.65</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2140.16</t>
+          <t>2462.05</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2019.85</t>
+          <t>2011.08</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>1625.75</t>
+          <t>1797.29</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1127.45</t>
+          <t>1248.35</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1110.05</t>
+          <t>1228.87</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1346.56</t>
+          <t>1462.21</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1334.98</t>
+          <t>1472.85</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2585.64</t>
+          <t>2510.95</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2128.74</t>
+          <t>2457.27</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>1992.12</t>
+          <t>1997.80</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>1614.30</t>
+          <t>1789.79</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1120.67</t>
+          <t>1247.21</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1103.30</t>
+          <t>1227.90</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1337.26</t>
+          <t>1432.10</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1318.05</t>
+          <t>1468.49</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2574.28</t>
+          <t>2505.73</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2119.80</t>
+          <t>2451.78</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>1921.96</t>
+          <t>1990.82</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>1605.33</t>
+          <t>1781.09</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1115.43</t>
+          <t>1245.88</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1098.08</t>
+          <t>1226.51</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1322.68</t>
+          <t>1428.40</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1311.41</t>
+          <t>1438.20</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2562.03</t>
+          <t>2502.11</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2113.11</t>
+          <t>2448.09</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>1911.09</t>
+          <t>1985.53</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1598.53</t>
+          <t>1778.93</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1111.95</t>
+          <t>1245.41</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1094.59</t>
+          <t>1226.03</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1322.36</t>
+          <t>1427.49</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1314.11</t>
+          <t>1437.62</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2517.22</t>
+          <t>2500.20</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2111.91</t>
+          <t>2449.50</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>1912.45</t>
+          <t>1979.10</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>1596.69</t>
+          <t>1779.38</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1113.99</t>
+          <t>1250.19</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1096.67</t>
+          <t>1230.92</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1325.80</t>
+          <t>1427.82</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1317.74</t>
+          <t>1436.55</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>2635.18</t>
+          <t>2583.38</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2158.62</t>
+          <t>2530.50</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>1978.05</t>
+          <t>2007.40</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>1606.49</t>
+          <t>1795.82</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1173.72</t>
+          <t>1318.61</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1161.78</t>
+          <t>1299.17</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1393.05</t>
+          <t>1429.64</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1380.03</t>
+          <t>1473.65</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>3420.39</t>
+          <t>3420.79</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>2531.54</t>
+          <t>3122.97</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>2640.66</t>
+          <t>2721.31</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>1949.97</t>
+          <t>2362.85</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>1562.20</t>
+          <t>1835.68</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>1566.35</t>
+          <t>1832.18</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2125.71</t>
+          <t>2225.52</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2131.34</t>
+          <t>2244.82</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1150.59</t>
+          <t>1647.67</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>166.14</t>
+          <t>1601.71</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>304.04</t>
+          <t>688.35</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>136.89</t>
+          <t>1245.75</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>150.52</t>
+          <t>917.51</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>154.22</t>
+          <t>909.48</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>619.38</t>
+          <t>944.92</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>616.11</t>
+          <t>939.40</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1767.87</t>
+          <t>2294.73</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1728.17</t>
+          <t>2226.10</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1364.71</t>
+          <t>1905.46</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>995.47</t>
+          <t>1766.60</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>815.39</t>
+          <t>1168.81</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>803.09</t>
+          <t>1160.36</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>817.01</t>
+          <t>1252.76</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>814.34</t>
+          <t>1271.34</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>1761.80</t>
+          <t>2294.21</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>1758.04</t>
+          <t>2215.04</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1333.70</t>
+          <t>1882.84</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1288.59</t>
+          <t>1771.03</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>824.55</t>
+          <t>1177.14</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>811.50</t>
+          <t>1169.02</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>823.78</t>
+          <t>1256.99</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>817.28</t>
+          <t>1272.76</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>1754.34</t>
+          <t>2289.43</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>1748.09</t>
+          <t>2213.12</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1319.76</t>
+          <t>1873.21</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1286.68</t>
+          <t>1766.98</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>824.80</t>
+          <t>1176.78</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>811.79</t>
+          <t>1168.78</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>823.33</t>
+          <t>1255.39</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>815.92</t>
+          <t>1269.98</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>1747.92</t>
+          <t>2284.88</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>1740.18</t>
+          <t>2209.37</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1311.50</t>
+          <t>1868.08</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>1280.79</t>
+          <t>1763.29</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>823.17</t>
+          <t>1175.85</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>810.21</t>
+          <t>1167.90</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>821.29</t>
+          <t>1253.99</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>813.65</t>
+          <t>1268.20</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>1742.03</t>
+          <t>2281.52</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>1733.10</t>
+          <t>2206.09</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>1308.58</t>
+          <t>1864.95</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>1159.47</t>
+          <t>1759.45</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>821.09</t>
+          <t>1175.13</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>808.16</t>
+          <t>1167.17</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>818.78</t>
+          <t>1253.08</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>811.15</t>
+          <t>1267.18</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>1736.04</t>
+          <t>2280.60</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>1727.46</t>
+          <t>2212.55</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>1301.85</t>
+          <t>1862.98</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>659.77</t>
+          <t>1759.97</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>818.65</t>
+          <t>1174.59</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>805.72</t>
+          <t>1166.52</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>815.89</t>
+          <t>1252.63</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>810.85</t>
+          <t>1266.52</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>1731.76</t>
+          <t>2282.40</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>1723.31</t>
+          <t>2221.61</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>1295.00</t>
+          <t>1863.90</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>324.50</t>
+          <t>1760.24</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>818.37</t>
+          <t>1177.22</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>805.40</t>
+          <t>1168.83</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>814.92</t>
+          <t>1254.44</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>809.85</t>
+          <t>1267.55</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>1791.81</t>
+          <t>2363.93</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>1785.64</t>
+          <t>2297.16</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>1298.13</t>
+          <t>1881.42</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>563.33</t>
+          <t>1763.80</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>863.45</t>
+          <t>1236.94</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>853.67</t>
+          <t>1227.54</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>848.22</t>
+          <t>1251.93</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>842.39</t>
+          <t>1302.10</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>2323.22</t>
+          <t>2821.08</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>2356.75</t>
+          <t>2921.28</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>1816.05</t>
+          <t>2448.27</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>1558.44</t>
+          <t>2263.48</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>1221.02</t>
+          <t>1630.88</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>1236.73</t>
+          <t>1640.21</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1364.53</t>
+          <t>1918.54</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1382.86</t>
+          <t>1934.10</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1870.81</t>
+          <t>1838.71</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1682.83</t>
+          <t>1763.41</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1316.48</t>
+          <t>1717.09</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1295.08</t>
+          <t>1344.74</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>970.00</t>
+          <t>1002.08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>959.85</t>
+          <t>989.43</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1065.45</t>
+          <t>1124.96</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1055.80</t>
+          <t>1114.34</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2614.97</t>
+          <t>2572.75</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2335.88</t>
+          <t>2444.59</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2052.01</t>
+          <t>2079.36</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1789.14</t>
+          <t>1844.09</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1223.65</t>
+          <t>1289.52</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1206.38</t>
+          <t>1270.50</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1341.24</t>
+          <t>1449.52</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1332.73</t>
+          <t>1465.83</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2612.39</t>
+          <t>2572.87</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2348.04</t>
+          <t>2463.53</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2041.71</t>
+          <t>2036.10</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>1799.22</t>
+          <t>1853.72</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1232.73</t>
+          <t>1302.48</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1215.26</t>
+          <t>1283.77</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1354.35</t>
+          <t>1463.38</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1343.55</t>
+          <t>1474.64</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2602.38</t>
+          <t>2585.21</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2323.22</t>
+          <t>2462.05</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2022.35</t>
+          <t>2029.38</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>1789.01</t>
+          <t>1842.34</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1228.28</t>
+          <t>1253.19</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1210.62</t>
+          <t>1244.94</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1346.56</t>
+          <t>1462.21</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1334.98</t>
+          <t>1472.85</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>2587.22</t>
+          <t>2578.42</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2305.05</t>
+          <t>2457.27</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2007.35</t>
+          <t>2022.66</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>1759.75</t>
+          <t>1831.45</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1220.98</t>
+          <t>1252.47</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1203.46</t>
+          <t>1241.07</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1337.26</t>
+          <t>1432.82</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1318.05</t>
+          <t>1468.49</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>2596.48</t>
+          <t>2575.78</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2292.48</t>
+          <t>2451.78</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>1975.84</t>
+          <t>2014.88</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>1757.57</t>
+          <t>1824.98</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1176.42</t>
+          <t>1251.62</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1172.65</t>
+          <t>1230.35</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1323.68</t>
+          <t>1429.96</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1313.71</t>
+          <t>1438.61</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>2562.03</t>
+          <t>2577.94</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2276.36</t>
+          <t>2448.09</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>1969.60</t>
+          <t>2008.49</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1755.14</t>
+          <t>1824.11</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1173.13</t>
+          <t>1259.44</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1155.46</t>
+          <t>1238.54</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>1323.28</t>
+          <t>1428.57</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1316.07</t>
+          <t>1437.62</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>2517.22</t>
+          <t>2576.30</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>2277.13</t>
+          <t>2449.50</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>1964.51</t>
+          <t>2007.27</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>1757.61</t>
+          <t>1824.69</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1177.23</t>
+          <t>1263.04</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1159.48</t>
+          <t>1242.24</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1327.57</t>
+          <t>1430.65</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1320.41</t>
+          <t>1439.34</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>2635.18</t>
+          <t>2617.97</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>2347.51</t>
+          <t>2530.50</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>1981.38</t>
+          <t>2038.61</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>1771.54</t>
+          <t>1836.43</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>1251.17</t>
+          <t>1332.86</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1233.38</t>
+          <t>1311.79</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>1393.05</t>
+          <t>1432.11</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>1380.03</t>
+          <t>1476.76</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>3453.25</t>
+          <t>3498.45</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3017.23</t>
+          <t>3224.53</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>2676.00</t>
+          <t>2721.31</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>2436.85</t>
+          <t>2415.13</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>1662.49</t>
+          <t>1835.68</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>1694.56</t>
+          <t>1832.18</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2127.82</t>
+          <t>2225.52</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2141.25</t>
+          <t>2244.82</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_PortAngelesTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_PortAngelesTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1802.04</t>
+          <t>1857.60</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1644.86</t>
+          <t>1557.12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>712.80</t>
+          <t>1130.44</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1245.75</t>
+          <t>1205.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>929.74</t>
+          <t>961.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>914.34</t>
+          <t>949.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1117.77</t>
+          <t>1164.51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1106.66</t>
+          <t>1162.55</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2554.83</t>
+          <t>2582.73</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2319.94</t>
+          <t>2196.13</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2048.92</t>
+          <t>2121.83</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1770.18</t>
+          <t>1673.99</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1196.19</t>
+          <t>1218.30</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1177.64</t>
+          <t>1199.44</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1447.12</t>
+          <t>1476.39</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1461.63</t>
+          <t>1494.16</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2572.87</t>
+          <t>2659.45</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2360.39</t>
+          <t>2224.34</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2027.60</t>
+          <t>2086.57</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1790.38</t>
+          <t>1692.86</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1256.16</t>
+          <t>1231.09</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1236.97</t>
+          <t>1211.84</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1452.84</t>
+          <t>1471.92</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1464.00</t>
+          <t>1484.35</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2585.21</t>
+          <t>2536.06</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2371.23</t>
+          <t>2222.26</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2022.29</t>
+          <t>2082.18</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1786.46</t>
+          <t>1783.91</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1253.19</t>
+          <t>1228.01</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1234.03</t>
+          <t>1082.46</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1448.15</t>
+          <t>1464.54</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1459.61</t>
+          <t>1474.77</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2578.42</t>
+          <t>2518.77</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2368.38</t>
+          <t>2213.20</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2016.35</t>
+          <t>2073.56</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1780.08</t>
+          <t>1656.04</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1221.07</t>
+          <t>1168.30</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1202.37</t>
+          <t>1152.91</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1432.82</t>
+          <t>1475.48</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1445.45</t>
+          <t>1478.34</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2575.78</t>
+          <t>2534.93</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>2342.27</t>
+          <t>2213.61</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2010.86</t>
+          <t>2114.36</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1773.77</t>
+          <t>1767.95</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1219.91</t>
+          <t>1233.88</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1200.93</t>
+          <t>1211.50</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1429.96</t>
+          <t>1497.89</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1438.61</t>
+          <t>1509.17</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2577.94</t>
+          <t>2526.87</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>2339.05</t>
+          <t>2324.83</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2006.51</t>
+          <t>2022.99</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1772.55</t>
+          <t>1640.35</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1218.85</t>
+          <t>1225.51</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1200.22</t>
+          <t>1206.43</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1428.57</t>
+          <t>1423.00</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1437.26</t>
+          <t>1433.74</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2576.30</t>
+          <t>2523.49</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>2341.79</t>
+          <t>2228.23</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2004.15</t>
+          <t>2016.80</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>1772.40</t>
+          <t>1639.68</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1223.73</t>
+          <t>1225.47</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1205.19</t>
+          <t>1206.98</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1430.65</t>
+          <t>1422.52</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1439.34</t>
+          <t>1432.90</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>2552.84</t>
+          <t>2594.27</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>2419.70</t>
+          <t>2303.04</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2007.86</t>
+          <t>2032.14</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1785.60</t>
+          <t>1655.07</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1296.77</t>
+          <t>1211.04</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1278.24</t>
+          <t>1193.43</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1432.11</t>
+          <t>1424.68</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1476.76</t>
+          <t>1473.47</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3498.45</t>
+          <t>3215.84</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>3013.68</t>
+          <t>2918.21</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>2658.44</t>
+          <t>2714.22</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>2263.48</t>
+          <t>2134.64</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1736.81</t>
+          <t>1558.81</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1735.40</t>
+          <t>1557.77</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2177.83</t>
+          <t>2308.79</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2186.87</t>
+          <t>2302.39</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1828.97</t>
+          <t>1901.13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1763.41</t>
+          <t>1733.72</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>820.48</t>
+          <t>999.09</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1344.74</t>
+          <t>1309.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>951.86</t>
+          <t>991.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>933.04</t>
+          <t>978.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1104.69</t>
+          <t>1156.56</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1092.63</t>
+          <t>1156.95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2519.45</t>
+          <t>2690.46</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2425.89</t>
+          <t>2383.00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2052.85</t>
+          <t>2125.03</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1842.57</t>
+          <t>1807.13</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1289.52</t>
+          <t>1258.15</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1270.50</t>
+          <t>1237.87</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1440.40</t>
+          <t>1468.25</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1454.64</t>
+          <t>1483.97</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2517.06</t>
+          <t>2697.83</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2441.69</t>
+          <t>2395.54</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2036.10</t>
+          <t>2123.42</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1853.72</t>
+          <t>1819.57</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1302.48</t>
+          <t>1269.74</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1283.77</t>
+          <t>1249.79</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1449.14</t>
+          <t>1472.98</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1460.93</t>
+          <t>1485.46</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2507.57</t>
+          <t>2688.76</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2437.24</t>
+          <t>2391.46</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2029.38</t>
+          <t>2118.10</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1842.34</t>
+          <t>1813.60</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1248.36</t>
+          <t>1268.43</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1227.80</t>
+          <t>1237.96</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1437.77</t>
+          <t>1464.26</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1455.15</t>
+          <t>1475.03</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2498.56</t>
+          <t>2680.66</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2430.50</t>
+          <t>2384.63</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2022.66</t>
+          <t>2109.59</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>1831.45</t>
+          <t>1806.29</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1246.32</t>
+          <t>1251.13</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1225.70</t>
+          <t>1232.99</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1413.54</t>
+          <t>1468.40</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1428.83</t>
+          <t>1476.22</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>2488.60</t>
+          <t>2675.56</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2424.45</t>
+          <t>2378.46</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2014.88</t>
+          <t>2102.90</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>1821.83</t>
+          <t>1797.59</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1243.97</t>
+          <t>1246.00</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1223.34</t>
+          <t>1227.50</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1410.85</t>
+          <t>1458.28</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1419.55</t>
+          <t>1467.53</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2483.55</t>
+          <t>2669.79</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>2420.41</t>
+          <t>2271.38</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>2008.49</t>
+          <t>2041.61</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1817.89</t>
+          <t>1789.96</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>1259.44</t>
+          <t>1241.83</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>1238.54</t>
+          <t>1221.73</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1409.71</t>
+          <t>1454.73</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1418.56</t>
+          <t>1464.17</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>2485.66</t>
+          <t>2668.57</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>2421.82</t>
+          <t>2273.71</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>2007.27</t>
+          <t>2040.15</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>1815.86</t>
+          <t>1749.82</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>1263.04</t>
+          <t>1242.29</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>1242.24</t>
+          <t>1221.46</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1412.19</t>
+          <t>1456.52</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1421.12</t>
+          <t>1465.97</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>2562.62</t>
+          <t>2748.02</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>2506.76</t>
+          <t>2450.87</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>2018.23</t>
+          <t>2059.98</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>1829.42</t>
+          <t>1762.49</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>1332.86</t>
+          <t>1290.82</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>1311.79</t>
+          <t>1275.45</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1416.09</t>
+          <t>1442.25</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1460.99</t>
+          <t>1508.34</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>3381.90</t>
+          <t>3538.55</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>3161.19</t>
+          <t>2778.66</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>2664.05</t>
+          <t>2791.75</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>2345.55</t>
+          <t>2091.29</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>1809.52</t>
+          <t>1624.43</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>1809.29</t>
+          <t>1628.39</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>2151.03</t>
+          <t>2292.89</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>2167.05</t>
+          <t>2304.00</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1838.71</t>
+          <t>1948.76</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1729.85</t>
+          <t>1736.48</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>775.94</t>
+          <t>756.04</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1281.14</t>
+          <t>1311.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>977.51</t>
+          <t>961.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>962.01</t>
+          <t>948.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1080.47</t>
+          <t>1114.01</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1069.12</t>
+          <t>1115.40</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2572.75</t>
+          <t>2719.08</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2436.38</t>
+          <t>2478.07</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2020.58</t>
+          <t>2143.94</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1789.54</t>
+          <t>1822.02</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1222.02</t>
+          <t>1248.83</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1204.26</t>
+          <t>1225.08</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1391.12</t>
+          <t>1439.93</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1404.82</t>
+          <t>1448.94</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2571.45</t>
+          <t>2722.20</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2444.54</t>
+          <t>2506.74</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2006.59</t>
+          <t>2132.75</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1797.04</t>
+          <t>1835.45</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1233.52</t>
+          <t>1273.54</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1215.33</t>
+          <t>1242.98</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1404.19</t>
+          <t>1455.51</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1413.19</t>
+          <t>1467.51</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2566.03</t>
+          <t>2706.98</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2436.91</t>
+          <t>2517.45</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2003.39</t>
+          <t>2116.65</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1787.81</t>
+          <t>1845.14</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1230.86</t>
+          <t>1278.40</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1213.12</t>
+          <t>1259.60</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1399.67</t>
+          <t>1456.72</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1409.08</t>
+          <t>1468.48</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2559.42</t>
+          <t>2695.49</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2427.80</t>
+          <t>2512.38</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2000.28</t>
+          <t>2104.37</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1785.14</t>
+          <t>1846.79</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1225.34</t>
+          <t>1293.15</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1208.13</t>
+          <t>1243.20</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1387.49</t>
+          <t>1451.23</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1396.58</t>
+          <t>1462.71</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2548.02</t>
+          <t>2685.27</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2419.58</t>
+          <t>2503.21</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>1994.49</t>
+          <t>2094.37</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1781.91</t>
+          <t>1844.06</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1220.89</t>
+          <t>1251.32</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1202.84</t>
+          <t>1229.35</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1363.36</t>
+          <t>1439.23</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1372.33</t>
+          <t>1455.04</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2543.43</t>
+          <t>2679.01</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2411.41</t>
+          <t>2497.69</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>1990.42</t>
+          <t>2094.11</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1782.77</t>
+          <t>1848.64</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1218.13</t>
+          <t>1253.68</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1199.85</t>
+          <t>1231.56</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1358.88</t>
+          <t>1429.98</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1367.87</t>
+          <t>1440.43</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2543.62</t>
+          <t>2678.04</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2411.21</t>
+          <t>2500.33</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>1992.74</t>
+          <t>2093.68</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1785.31</t>
+          <t>1854.27</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1221.81</t>
+          <t>1262.19</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1203.28</t>
+          <t>1243.90</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1360.27</t>
+          <t>1425.54</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1369.08</t>
+          <t>1435.24</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2617.97</t>
+          <t>2762.47</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2489.95</t>
+          <t>2580.64</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2014.51</t>
+          <t>2110.32</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>1806.94</t>
+          <t>1880.31</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1288.14</t>
+          <t>1336.01</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1273.65</t>
+          <t>1316.57</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1367.11</t>
+          <t>1402.32</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1409.59</t>
+          <t>1453.64</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3424.07</t>
+          <t>3566.90</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>3224.53</t>
+          <t>3249.59</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2702.51</t>
+          <t>2807.14</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2388.07</t>
+          <t>2432.32</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>1773.78</t>
+          <t>1773.49</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>1770.26</t>
+          <t>1766.09</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2168.67</t>
+          <t>2285.46</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2176.25</t>
+          <t>2303.22</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1792.65</t>
+          <t>1887.31</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1715.51</t>
+          <t>1776.89</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>780.09</t>
+          <t>571.14</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1291.68</t>
+          <t>1369.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>984.63</t>
+          <t>1039.72</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>970.28</t>
+          <t>1028.78</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1051.52</t>
+          <t>1122.97</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1042.64</t>
+          <t>1120.62</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2494.31</t>
+          <t>2646.66</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2368.92</t>
+          <t>2461.21</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2022.57</t>
+          <t>2075.10</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1819.62</t>
+          <t>1847.84</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1215.04</t>
+          <t>1294.48</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1198.29</t>
+          <t>1276.38</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1337.30</t>
+          <t>1451.29</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1351.17</t>
+          <t>1468.33</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2495.29</t>
+          <t>2657.78</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2378.99</t>
+          <t>2485.40</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2003.21</t>
+          <t>2052.14</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1823.73</t>
+          <t>1852.31</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1227.87</t>
+          <t>1300.73</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1211.16</t>
+          <t>1283.46</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1345.90</t>
+          <t>1450.41</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1356.81</t>
+          <t>1462.53</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2488.58</t>
+          <t>2653.74</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2371.21</t>
+          <t>2483.79</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1990.44</t>
+          <t>2052.61</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1810.50</t>
+          <t>1840.88</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1228.84</t>
+          <t>1294.22</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1212.21</t>
+          <t>1277.68</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1345.20</t>
+          <t>1358.84</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1355.09</t>
+          <t>1368.31</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2481.79</t>
+          <t>2647.36</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2369.14</t>
+          <t>2478.78</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1980.11</t>
+          <t>2045.67</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1801.96</t>
+          <t>1827.31</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1222.07</t>
+          <t>1212.54</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1206.84</t>
+          <t>1269.79</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1336.01</t>
+          <t>1353.33</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1347.28</t>
+          <t>1362.45</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2485.33</t>
+          <t>2641.42</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2366.67</t>
+          <t>2473.54</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>1970.74</t>
+          <t>2043.41</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1799.27</t>
+          <t>1810.24</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1216.63</t>
+          <t>1206.63</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1199.92</t>
+          <t>1189.51</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1337.56</t>
+          <t>1347.25</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1348.15</t>
+          <t>1356.97</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2469.94</t>
+          <t>2637.01</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2365.76</t>
+          <t>2469.64</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>1962.71</t>
+          <t>2041.00</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1795.10</t>
+          <t>1805.19</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1211.25</t>
+          <t>1205.16</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1197.24</t>
+          <t>1185.53</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1334.80</t>
+          <t>1350.01</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1346.01</t>
+          <t>1358.10</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2472.09</t>
+          <t>2638.09</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2369.62</t>
+          <t>2473.01</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>1960.31</t>
+          <t>2040.27</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1794.57</t>
+          <t>1806.22</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1211.72</t>
+          <t>1208.61</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1193.34</t>
+          <t>1191.48</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1337.05</t>
+          <t>1355.65</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1346.77</t>
+          <t>1367.94</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2552.30</t>
+          <t>2728.44</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2449.56</t>
+          <t>2559.85</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>1985.10</t>
+          <t>2062.29</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>1807.34</t>
+          <t>1826.83</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1281.33</t>
+          <t>1281.65</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1264.24</t>
+          <t>1263.78</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1348.23</t>
+          <t>1361.66</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1400.33</t>
+          <t>1417.01</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3289.10</t>
+          <t>3505.12</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3091.65</t>
+          <t>3293.41</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2680.68</t>
+          <t>2773.63</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2415.13</t>
+          <t>2413.06</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1752.84</t>
+          <t>1739.36</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1756.36</t>
+          <t>1741.28</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2130.49</t>
+          <t>2204.77</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2145.42</t>
+          <t>2218.35</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1766.77</t>
+          <t>1617.55</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1706.00</t>
+          <t>1487.90</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1016.66</t>
+          <t>578.95</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1313.22</t>
+          <t>1160.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>955.60</t>
+          <t>836.26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>942.86</t>
+          <t>841.17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>995.85</t>
+          <t>872.82</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>992.38</t>
+          <t>874.52</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2463.55</t>
+          <t>2320.13</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2367.48</t>
+          <t>2155.60</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2014.21</t>
+          <t>1835.59</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1834.85</t>
+          <t>1620.21</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1210.39</t>
+          <t>1093.08</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1195.06</t>
+          <t>1027.94</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1311.82</t>
+          <t>1166.25</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1329.80</t>
+          <t>1185.36</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2461.11</t>
+          <t>2333.22</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2373.26</t>
+          <t>2171.21</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1983.41</t>
+          <t>1837.56</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1844.20</t>
+          <t>1653.58</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1230.47</t>
+          <t>1111.91</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1215.02</t>
+          <t>1043.01</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1327.73</t>
+          <t>1185.42</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1341.87</t>
+          <t>1191.08</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2453.91</t>
+          <t>2335.74</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2367.72</t>
+          <t>2171.47</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>1970.16</t>
+          <t>1842.74</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>1838.12</t>
+          <t>1652.53</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1237.06</t>
+          <t>1106.00</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1221.00</t>
+          <t>1099.54</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1329.91</t>
+          <t>1199.89</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1340.81</t>
+          <t>1195.89</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2441.87</t>
+          <t>2335.89</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2356.09</t>
+          <t>2169.47</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1961.02</t>
+          <t>1839.85</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>1831.22</t>
+          <t>1646.26</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1234.84</t>
+          <t>1086.84</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1218.76</t>
+          <t>1089.90</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1326.97</t>
+          <t>1224.88</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1337.45</t>
+          <t>1201.41</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2437.83</t>
+          <t>2335.46</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2350.56</t>
+          <t>2167.24</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>1954.88</t>
+          <t>1837.79</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>1824.98</t>
+          <t>1634.11</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1232.87</t>
+          <t>1071.90</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1216.87</t>
+          <t>1069.85</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1324.61</t>
+          <t>1200.24</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1334.94</t>
+          <t>1221.71</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2435.02</t>
+          <t>2335.50</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2346.46</t>
+          <t>2165.79</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>1950.36</t>
+          <t>1839.22</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1824.11</t>
+          <t>1626.29</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1231.79</t>
+          <t>1056.47</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1215.91</t>
+          <t>1055.78</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1323.48</t>
+          <t>1200.69</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1333.68</t>
+          <t>1213.78</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2437.52</t>
+          <t>2340.03</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2354.04</t>
+          <t>2170.77</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>1952.50</t>
+          <t>1842.46</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>1824.69</t>
+          <t>1627.36</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1235.95</t>
+          <t>1058.65</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1219.94</t>
+          <t>1044.76</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1326.80</t>
+          <t>1205.15</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1336.60</t>
+          <t>1217.62</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2518.03</t>
+          <t>2425.12</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2431.78</t>
+          <t>2244.17</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>1973.92</t>
+          <t>1867.50</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>1836.43</t>
+          <t>1647.22</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1299.75</t>
+          <t>1121.54</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1288.21</t>
+          <t>1108.08</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1329.31</t>
+          <t>1207.94</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1378.59</t>
+          <t>1261.24</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3147.09</t>
+          <t>3052.15</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3062.62</t>
+          <t>2780.92</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2635.28</t>
+          <t>2456.31</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2410.54</t>
+          <t>2175.58</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>1730.85</t>
+          <t>1529.77</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>1738.10</t>
+          <t>1538.69</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2064.63</t>
+          <t>1961.59</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2076.82</t>
+          <t>1971.51</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1647.67</t>
+          <t>1486.34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1601.71</t>
+          <t>1399.25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1238.74</t>
+          <t>797.17</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1256.08</t>
+          <t>1064.61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>926.73</t>
+          <t>762.45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>919.27</t>
+          <t>756.18</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>951.79</t>
+          <t>829.94</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>944.52</t>
+          <t>835.14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2294.73</t>
+          <t>2157.62</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2226.10</t>
+          <t>2053.77</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1913.41</t>
+          <t>1746.16</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1766.60</t>
+          <t>1532.86</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1168.81</t>
+          <t>995.11</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1160.36</t>
+          <t>986.02</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1252.76</t>
+          <t>1125.76</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1271.34</t>
+          <t>1147.13</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2294.21</t>
+          <t>2158.17</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2215.04</t>
+          <t>2060.86</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1883.00</t>
+          <t>1696.08</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1771.03</t>
+          <t>1542.40</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1177.14</t>
+          <t>1005.96</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1169.02</t>
+          <t>996.89</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1256.99</t>
+          <t>1132.55</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1272.76</t>
+          <t>1150.64</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2289.43</t>
+          <t>2154.46</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2213.12</t>
+          <t>2058.55</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1873.21</t>
+          <t>1682.72</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1766.98</t>
+          <t>1538.85</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1176.78</t>
+          <t>1006.76</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1168.78</t>
+          <t>997.71</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1255.39</t>
+          <t>1130.32</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1269.98</t>
+          <t>1148.09</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2284.88</t>
+          <t>2150.58</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2209.37</t>
+          <t>2055.32</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1868.08</t>
+          <t>1676.36</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1763.29</t>
+          <t>1534.89</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1175.85</t>
+          <t>1005.88</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1167.90</t>
+          <t>996.86</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1253.99</t>
+          <t>1128.80</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1268.20</t>
+          <t>1146.16</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2281.52</t>
+          <t>2147.13</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2206.09</t>
+          <t>2052.34</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1864.95</t>
+          <t>1672.09</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1759.45</t>
+          <t>1531.34</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1175.13</t>
+          <t>1004.61</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1167.17</t>
+          <t>995.58</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1253.08</t>
+          <t>1127.35</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1267.18</t>
+          <t>1144.62</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2280.60</t>
+          <t>2144.54</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2212.55</t>
+          <t>2050.10</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1862.98</t>
+          <t>1671.63</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1759.97</t>
+          <t>1528.58</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1174.59</t>
+          <t>1003.14</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1166.52</t>
+          <t>994.01</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1252.63</t>
+          <t>1126.29</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1266.52</t>
+          <t>1143.41</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2282.40</t>
+          <t>2146.22</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2221.61</t>
+          <t>2054.10</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1863.90</t>
+          <t>1672.08</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1760.24</t>
+          <t>1528.89</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1177.22</t>
+          <t>1003.66</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1168.83</t>
+          <t>994.29</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1254.44</t>
+          <t>1125.48</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1267.55</t>
+          <t>1138.45</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2363.93</t>
+          <t>2224.17</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2297.16</t>
+          <t>2129.08</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>1881.42</t>
+          <t>1693.81</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>1763.80</t>
+          <t>1548.08</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1236.94</t>
+          <t>1058.09</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1227.54</t>
+          <t>1047.88</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1251.93</t>
+          <t>1115.90</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1302.10</t>
+          <t>1162.39</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2841.37</t>
+          <t>2713.08</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>2975.06</t>
+          <t>2725.22</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2448.27</t>
+          <t>2259.18</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2267.54</t>
+          <t>2063.54</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1630.88</t>
+          <t>1462.35</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1640.21</t>
+          <t>1472.03</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1918.54</t>
+          <t>1776.20</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1934.10</t>
+          <t>1787.78</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1660.34</t>
+          <t>1354.36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1612.99</t>
+          <t>1278.70</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1443.63</t>
+          <t>871.32</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1258.58</t>
+          <t>985.90</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>917.51</t>
+          <t>684.01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>909.48</t>
+          <t>684.20</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>944.92</t>
+          <t>728.03</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>939.40</t>
+          <t>735.45</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2307.97</t>
+          <t>1980.90</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2240.79</t>
+          <t>1884.89</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1905.46</t>
+          <t>1615.58</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1770.85</t>
+          <t>1440.71</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1171.00</t>
+          <t>907.51</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1165.62</t>
+          <t>905.37</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1253.51</t>
+          <t>1004.35</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1276.11</t>
+          <t>1030.08</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2305.06</t>
+          <t>1968.88</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2244.31</t>
+          <t>1878.77</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1882.84</t>
+          <t>1577.02</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1777.24</t>
+          <t>1441.88</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1181.81</t>
+          <t>912.92</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1176.63</t>
+          <t>911.33</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1259.87</t>
+          <t>1004.73</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1278.92</t>
+          <t>1026.32</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2310.47</t>
+          <t>1960.02</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2256.51</t>
+          <t>1870.91</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1877.31</t>
+          <t>1559.83</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1773.70</t>
+          <t>1434.03</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1184.63</t>
+          <t>910.90</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1177.97</t>
+          <t>909.42</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1259.78</t>
+          <t>1001.20</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1278.93</t>
+          <t>1020.92</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2324.30</t>
+          <t>1953.13</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2254.20</t>
+          <t>1864.76</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1873.39</t>
+          <t>1550.58</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1775.16</t>
+          <t>1427.45</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1185.69</t>
+          <t>908.54</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1178.29</t>
+          <t>907.07</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1259.74</t>
+          <t>998.23</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1280.68</t>
+          <t>1017.20</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2326.73</t>
+          <t>1947.28</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2252.27</t>
+          <t>1859.53</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1872.84</t>
+          <t>1543.94</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1773.72</t>
+          <t>1421.64</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1186.69</t>
+          <t>906.18</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1178.56</t>
+          <t>904.65</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1260.96</t>
+          <t>995.63</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1282.94</t>
+          <t>1014.21</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2324.78</t>
+          <t>1942.09</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2251.72</t>
+          <t>1854.64</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1873.55</t>
+          <t>1540.48</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1777.88</t>
+          <t>1415.73</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1187.97</t>
+          <t>903.29</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1178.83</t>
+          <t>901.56</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1262.92</t>
+          <t>992.81</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1284.36</t>
+          <t>1010.87</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2326.49</t>
+          <t>1939.86</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2255.41</t>
+          <t>1854.06</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1871.18</t>
+          <t>1535.50</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>1779.01</t>
+          <t>1410.42</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1191.59</t>
+          <t>901.33</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1182.20</t>
+          <t>899.12</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1265.22</t>
+          <t>990.38</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1285.25</t>
+          <t>1007.19</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2408.12</t>
+          <t>2008.72</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2332.87</t>
+          <t>1917.30</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1889.99</t>
+          <t>1545.73</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>1775.25</t>
+          <t>1417.73</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1252.93</t>
+          <t>950.69</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1244.96</t>
+          <t>947.38</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1265.01</t>
+          <t>976.06</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1311.13</t>
+          <t>1032.04</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2821.08</t>
+          <t>2487.06</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>2946.10</t>
+          <t>2449.32</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2453.23</t>
+          <t>2076.99</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2274.19</t>
+          <t>1889.77</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1661.65</t>
+          <t>1329.52</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1677.25</t>
+          <t>1346.06</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1955.96</t>
+          <t>1632.59</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1972.13</t>
+          <t>1649.56</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1684.11</t>
+          <t>1357.92</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1620.57</t>
+          <t>1275.66</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1549.96</t>
+          <t>1164.59</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1270.34</t>
+          <t>990.41</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>926.11</t>
+          <t>705.55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>919.13</t>
+          <t>706.11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>966.51</t>
+          <t>763.40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>958.02</t>
+          <t>770.92</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2320.80</t>
+          <t>1991.00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2235.81</t>
+          <t>1870.09</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1939.85</t>
+          <t>1604.99</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1782.44</t>
+          <t>1410.93</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1170.91</t>
+          <t>921.15</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1163.11</t>
+          <t>918.25</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1273.50</t>
+          <t>1033.46</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1294.06</t>
+          <t>1057.81</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2319.60</t>
+          <t>1977.11</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2227.30</t>
+          <t>1860.86</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1919.13</t>
+          <t>1565.26</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1786.14</t>
+          <t>1409.94</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1179.25</t>
+          <t>925.97</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1171.51</t>
+          <t>923.65</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1277.32</t>
+          <t>1032.92</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1296.24</t>
+          <t>1054.10</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2320.90</t>
+          <t>1966.08</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2229.98</t>
+          <t>1852.15</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1908.91</t>
+          <t>1547.61</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1779.64</t>
+          <t>1400.67</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1178.92</t>
+          <t>923.29</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1171.19</t>
+          <t>921.18</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1275.51</t>
+          <t>1028.52</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1293.62</t>
+          <t>1048.24</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2323.43</t>
+          <t>1957.22</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2233.04</t>
+          <t>1846.32</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1904.00</t>
+          <t>1537.96</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1774.18</t>
+          <t>1393.23</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1178.23</t>
+          <t>920.42</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1170.48</t>
+          <t>918.38</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1274.19</t>
+          <t>1024.86</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1291.92</t>
+          <t>1043.97</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2326.30</t>
+          <t>1949.84</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2236.22</t>
+          <t>1841.67</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1902.21</t>
+          <t>1531.00</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1769.74</t>
+          <t>1387.46</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1177.87</t>
+          <t>917.67</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1170.07</t>
+          <t>915.60</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1274.06</t>
+          <t>1021.66</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1290.97</t>
+          <t>1040.41</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2329.56</t>
+          <t>1943.85</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2239.69</t>
+          <t>1837.00</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1898.89</t>
+          <t>1526.92</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1769.73</t>
+          <t>1381.58</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1177.80</t>
+          <t>914.51</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1169.84</t>
+          <t>912.24</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1273.80</t>
+          <t>1018.17</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1290.36</t>
+          <t>1036.39</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2337.24</t>
+          <t>1941.89</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2247.32</t>
+          <t>1835.67</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>1897.67</t>
+          <t>1520.02</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1768.93</t>
+          <t>1375.56</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1181.22</t>
+          <t>912.50</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1172.97</t>
+          <t>909.71</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1275.67</t>
+          <t>1014.71</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1291.38</t>
+          <t>1031.58</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2429.48</t>
+          <t>2012.53</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2335.51</t>
+          <t>1898.75</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>1907.74</t>
+          <t>1524.40</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1770.23</t>
+          <t>1380.08</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1242.17</t>
+          <t>957.07</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1233.22</t>
+          <t>952.78</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1270.60</t>
+          <t>994.25</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1323.71</t>
+          <t>1049.26</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2839.39</t>
+          <t>2532.75</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2921.28</t>
+          <t>2474.59</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2476.10</t>
+          <t>2080.01</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2271.66</t>
+          <t>1847.52</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1649.85</t>
+          <t>1303.18</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1662.24</t>
+          <t>1318.46</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1945.93</t>
+          <t>1623.30</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1961.50</t>
+          <t>1638.01</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1763.59</t>
+          <t>1392.79</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1716.73</t>
+          <t>1257.74</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1579.30</t>
+          <t>1223.68</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1324.03</t>
+          <t>1021.62</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>976.36</t>
+          <t>733.56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>968.41</t>
+          <t>733.75</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1040.97</t>
+          <t>807.41</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1029.90</t>
+          <t>815.29</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2420.55</t>
+          <t>2041.34</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2352.97</t>
+          <t>1849.59</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1982.27</t>
+          <t>1661.07</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1824.06</t>
+          <t>1438.98</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1228.13</t>
+          <t>939.42</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1216.54</t>
+          <t>933.88</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1351.94</t>
+          <t>1081.16</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1369.69</t>
+          <t>1104.98</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2415.53</t>
+          <t>2028.16</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2357.71</t>
+          <t>1845.99</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1936.94</t>
+          <t>1625.23</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1823.76</t>
+          <t>1440.82</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1235.52</t>
+          <t>943.80</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1221.49</t>
+          <t>937.63</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1350.34</t>
+          <t>1081.17</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1365.82</t>
+          <t>1100.98</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2411.43</t>
+          <t>2018.01</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2355.34</t>
+          <t>1838.56</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1922.62</t>
+          <t>1609.89</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1814.79</t>
+          <t>1434.26</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1236.00</t>
+          <t>941.73</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1220.85</t>
+          <t>935.32</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1345.61</t>
+          <t>1077.41</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1359.97</t>
+          <t>1095.37</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2407.76</t>
+          <t>2009.98</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2354.98</t>
+          <t>1831.88</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1915.22</t>
+          <t>1602.01</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1808.42</t>
+          <t>1429.01</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1235.46</t>
+          <t>939.47</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1221.25</t>
+          <t>932.94</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1341.49</t>
+          <t>1074.41</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1356.02</t>
+          <t>1091.57</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2404.75</t>
+          <t>2003.33</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2355.05</t>
+          <t>1826.11</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>1910.17</t>
+          <t>1596.65</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1803.10</t>
+          <t>1424.63</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1235.19</t>
+          <t>937.39</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1220.53</t>
+          <t>930.74</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1338.57</t>
+          <t>1071.96</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1353.05</t>
+          <t>1088.68</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2402.80</t>
+          <t>1997.89</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2355.16</t>
+          <t>1821.47</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>1906.70</t>
+          <t>1594.63</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1802.87</t>
+          <t>1420.54</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1234.97</t>
+          <t>935.15</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1220.04</t>
+          <t>928.26</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1337.47</t>
+          <t>1069.49</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1351.71</t>
+          <t>1085.67</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2405.54</t>
+          <t>1996.14</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2357.93</t>
+          <t>1822.87</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>1907.06</t>
+          <t>1591.55</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1803.53</t>
+          <t>1418.21</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1239.61</t>
+          <t>934.93</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1224.70</t>
+          <t>927.48</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1339.57</t>
+          <t>1067.99</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1351.24</t>
+          <t>1082.93</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2482.82</t>
+          <t>2068.33</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2434.36</t>
+          <t>1889.82</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>1927.45</t>
+          <t>1594.74</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>1811.98</t>
+          <t>1424.14</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1308.42</t>
+          <t>984.38</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1292.42</t>
+          <t>975.32</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1334.93</t>
+          <t>1050.10</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1386.53</t>
+          <t>1105.45</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>3068.19</t>
+          <t>2609.96</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2985.23</t>
+          <t>2468.52</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2519.73</t>
+          <t>2147.12</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2310.24</t>
+          <t>1821.48</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1717.56</t>
+          <t>1272.41</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1717.58</t>
+          <t>1282.24</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2024.25</t>
+          <t>1694.16</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2035.33</t>
+          <t>1710.67</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1801.55</t>
+          <t>1719.92</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1709.91</t>
+          <t>1570.92</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1717.09</t>
+          <t>1569.22</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1341.72</t>
+          <t>1137.40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>980.53</t>
+          <t>905.76</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>970.41</t>
+          <t>898.06</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1121.40</t>
+          <t>998.87</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1112.93</t>
+          <t>1001.45</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2478.94</t>
+          <t>2372.06</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2343.41</t>
+          <t>2255.91</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2079.36</t>
+          <t>1952.04</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1844.09</t>
+          <t>1645.91</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1236.79</t>
+          <t>1133.54</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1220.87</t>
+          <t>1124.15</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1391.37</t>
+          <t>1286.97</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1461.60</t>
+          <t>1304.66</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2461.65</t>
+          <t>2366.86</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2344.25</t>
+          <t>2271.73</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2030.57</t>
+          <t>1916.56</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>1839.85</t>
+          <t>1662.39</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1243.09</t>
+          <t>1125.69</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1228.60</t>
+          <t>1126.12</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1382.86</t>
+          <t>1287.94</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1396.83</t>
+          <t>1301.58</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2456.51</t>
+          <t>2357.63</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2340.84</t>
+          <t>2270.38</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2004.78</t>
+          <t>1896.46</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>1829.85</t>
+          <t>1660.18</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1242.04</t>
+          <t>1092.61</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1227.04</t>
+          <t>1109.03</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1374.23</t>
+          <t>1275.74</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1390.35</t>
+          <t>1290.41</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2451.71</t>
+          <t>2348.09</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2335.07</t>
+          <t>2265.63</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>1997.30</t>
+          <t>1883.69</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>1823.91</t>
+          <t>1656.35</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1240.55</t>
+          <t>1120.34</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1224.44</t>
+          <t>1089.17</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1373.92</t>
+          <t>1276.41</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1392.05</t>
+          <t>1278.55</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2448.13</t>
+          <t>2339.99</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2331.94</t>
+          <t>2260.38</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>1990.98</t>
+          <t>1873.53</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>1824.69</t>
+          <t>1651.67</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1239.31</t>
+          <t>1115.89</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1222.86</t>
+          <t>1102.15</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1370.03</t>
+          <t>1288.49</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1408.38</t>
+          <t>1299.76</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2446.33</t>
+          <t>2333.45</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2330.25</t>
+          <t>2256.20</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>1986.29</t>
+          <t>1867.09</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1822.32</t>
+          <t>1650.58</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1238.63</t>
+          <t>1109.98</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1222.08</t>
+          <t>1098.49</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1360.60</t>
+          <t>1290.24</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1378.86</t>
+          <t>1299.97</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>2447.92</t>
+          <t>2319.39</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2333.47</t>
+          <t>2259.62</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>1985.51</t>
+          <t>1864.25</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>1822.58</t>
+          <t>1649.96</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1239.19</t>
+          <t>1110.12</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1226.52</t>
+          <t>1096.13</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1360.99</t>
+          <t>1289.91</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1371.50</t>
+          <t>1300.81</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>2527.17</t>
+          <t>2395.14</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>2410.57</t>
+          <t>2340.07</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2003.88</t>
+          <t>1886.20</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>1834.25</t>
+          <t>1672.96</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1300.32</t>
+          <t>1171.87</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1289.35</t>
+          <t>1156.77</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1354.66</t>
+          <t>1292.64</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1410.99</t>
+          <t>1338.94</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3151.27</t>
+          <t>2954.16</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3041.89</t>
+          <t>3028.95</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>2629.61</t>
+          <t>2410.68</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>2408.23</t>
+          <t>2213.62</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>1723.06</t>
+          <t>1595.29</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>1727.91</t>
+          <t>1595.23</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2101.71</t>
+          <t>1933.70</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2117.56</t>
+          <t>1948.66</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1764.17</t>
+          <t>1815.65</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1724.17</t>
+          <t>1667.39</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1444.76</t>
+          <t>1064.84</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1297.40</t>
+          <t>1240.07</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1002.08</t>
+          <t>966.87</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>989.43</t>
+          <t>959.15</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1101.06</t>
+          <t>1083.19</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1091.23</t>
+          <t>1085.99</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2551.84</t>
+          <t>2513.66</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2378.04</t>
+          <t>2379.24</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2060.81</t>
+          <t>2150.30</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1814.53</t>
+          <t>1764.50</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1248.04</t>
+          <t>1190.20</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1233.64</t>
+          <t>1187.85</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1413.19</t>
+          <t>1468.72</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1428.51</t>
+          <t>1475.96</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2458.04</t>
+          <t>2520.06</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2384.65</t>
+          <t>2408.05</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2034.24</t>
+          <t>2104.32</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>1819.77</t>
+          <t>1797.95</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1260.73</t>
+          <t>1188.13</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1247.24</t>
+          <t>1182.14</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1416.40</t>
+          <t>1456.35</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1427.12</t>
+          <t>1478.50</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2455.13</t>
+          <t>2489.18</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2380.91</t>
+          <t>2412.20</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2025.20</t>
+          <t>2079.68</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>1811.35</t>
+          <t>1798.47</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1242.90</t>
+          <t>1201.98</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1244.94</t>
+          <t>1179.87</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1407.25</t>
+          <t>1437.03</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1416.94</t>
+          <t>1453.67</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>2431.00</t>
+          <t>2483.91</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2374.33</t>
+          <t>2409.65</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2019.01</t>
+          <t>2060.87</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>1804.00</t>
+          <t>1791.36</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1252.47</t>
+          <t>1203.86</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1241.07</t>
+          <t>1183.26</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1401.77</t>
+          <t>1414.86</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1416.21</t>
+          <t>1431.98</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>2426.47</t>
+          <t>2478.64</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2369.95</t>
+          <t>2405.98</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2009.72</t>
+          <t>2045.59</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>1797.90</t>
+          <t>1784.88</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1251.62</t>
+          <t>1184.83</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1230.35</t>
+          <t>1167.19</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1407.41</t>
+          <t>1402.73</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1421.14</t>
+          <t>1422.31</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>2423.08</t>
+          <t>2474.73</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2366.75</t>
+          <t>2403.57</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2005.79</t>
+          <t>2033.84</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1795.46</t>
+          <t>1779.81</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1250.47</t>
+          <t>1180.99</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1232.04</t>
+          <t>1162.02</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1413.78</t>
+          <t>1402.41</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1420.11</t>
+          <t>1413.68</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>2423.75</t>
+          <t>2475.26</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2361.03</t>
+          <t>2407.64</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2005.55</t>
+          <t>2016.92</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>1796.07</t>
+          <t>1775.10</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1254.08</t>
+          <t>1183.58</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1235.60</t>
+          <t>1163.92</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1416.89</t>
+          <t>1379.92</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1429.34</t>
+          <t>1413.76</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>2499.03</t>
+          <t>2548.70</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>2444.01</t>
+          <t>2490.79</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2038.61</t>
+          <t>2029.00</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>1807.89</t>
+          <t>1794.03</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>1326.49</t>
+          <t>1252.26</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1307.77</t>
+          <t>1232.39</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>1379.65</t>
+          <t>1375.23</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>1427.90</t>
+          <t>1424.47</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>3286.38</t>
+          <t>3193.31</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3123.44</t>
+          <t>3145.37</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>2667.17</t>
+          <t>2690.83</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2391.48</t>
+          <t>2336.65</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>1764.22</t>
+          <t>1701.87</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>1770.69</t>
+          <t>1699.88</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2114.95</t>
+          <t>2091.40</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2127.73</t>
+          <t>2104.01</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1820.49</t>
+          <t>1896.50</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1746.14</t>
+          <t>1714.29</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>688.35</t>
+          <t>724.32</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1289.99</t>
+          <t>1327.88</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>980.36</t>
+          <t>1001.05</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>964.18</t>
+          <t>981.56</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1124.96</t>
+          <t>1155.18</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1114.34</t>
+          <t>1155.21</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2518.64</t>
+          <t>2594.93</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2444.59</t>
+          <t>2373.17</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2051.57</t>
+          <t>2115.22</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1783.89</t>
+          <t>1813.83</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1229.89</t>
+          <t>1244.72</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1210.74</t>
+          <t>1217.81</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1449.52</t>
+          <t>1451.98</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1465.83</t>
+          <t>1469.65</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2521.40</t>
+          <t>2585.55</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2463.53</t>
+          <t>2386.35</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2017.21</t>
+          <t>2113.63</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1803.53</t>
+          <t>1828.08</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1247.26</t>
+          <t>1194.78</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1227.23</t>
+          <t>1177.63</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1463.38</t>
+          <t>1474.97</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1474.64</t>
+          <t>1485.68</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2516.65</t>
+          <t>2561.60</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2462.05</t>
+          <t>2381.53</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2011.08</t>
+          <t>2087.26</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>1797.29</t>
+          <t>1823.56</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1248.35</t>
+          <t>1263.23</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1228.87</t>
+          <t>1171.28</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1462.21</t>
+          <t>1468.87</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1472.85</t>
+          <t>1483.43</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2510.95</t>
+          <t>2535.51</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2457.27</t>
+          <t>2375.62</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>1997.80</t>
+          <t>2039.56</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>1789.79</t>
+          <t>1815.77</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1247.21</t>
+          <t>1258.49</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1227.90</t>
+          <t>1241.35</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1432.10</t>
+          <t>1467.32</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1468.49</t>
+          <t>1481.08</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2505.73</t>
+          <t>2495.94</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2451.78</t>
+          <t>2358.37</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>1990.82</t>
+          <t>2026.49</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>1781.09</t>
+          <t>1808.40</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1245.88</t>
+          <t>1254.28</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1226.51</t>
+          <t>1236.36</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1428.40</t>
+          <t>1453.00</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1438.20</t>
+          <t>1465.75</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2502.11</t>
+          <t>2507.55</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2448.09</t>
+          <t>2355.27</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>1985.53</t>
+          <t>2031.39</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1778.93</t>
+          <t>1803.43</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1245.41</t>
+          <t>1252.40</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1226.03</t>
+          <t>1234.01</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1427.49</t>
+          <t>1453.66</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1437.62</t>
+          <t>1464.33</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2500.20</t>
+          <t>2507.65</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2449.50</t>
+          <t>2360.09</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>1979.10</t>
+          <t>2029.67</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>1779.38</t>
+          <t>1803.34</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1250.19</t>
+          <t>1256.47</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1230.92</t>
+          <t>1237.96</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1427.82</t>
+          <t>1455.16</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1436.55</t>
+          <t>1464.99</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>2583.38</t>
+          <t>2580.04</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2530.50</t>
+          <t>2433.36</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2007.40</t>
+          <t>2045.86</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>1795.82</t>
+          <t>1822.71</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1318.61</t>
+          <t>1325.87</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1299.17</t>
+          <t>1307.26</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1429.64</t>
+          <t>1439.69</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1473.65</t>
+          <t>1505.99</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>3420.79</t>
+          <t>3220.85</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3122.97</t>
+          <t>2962.17</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>2721.31</t>
+          <t>2675.64</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2362.85</t>
+          <t>2288.00</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>1835.68</t>
+          <t>1725.94</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>1832.18</t>
+          <t>1730.03</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2225.52</t>
+          <t>2175.25</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2244.82</t>
+          <t>2175.36</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1647.67</t>
+          <t>1354.36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1601.71</t>
+          <t>1257.74</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>688.35</t>
+          <t>571.14</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1245.75</t>
+          <t>985.90</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>917.51</t>
+          <t>684.01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>909.48</t>
+          <t>684.20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>944.92</t>
+          <t>728.03</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>939.40</t>
+          <t>735.45</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2294.73</t>
+          <t>1980.90</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2226.10</t>
+          <t>1849.59</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1905.46</t>
+          <t>1604.99</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1766.60</t>
+          <t>1410.93</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1168.81</t>
+          <t>907.51</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1160.36</t>
+          <t>905.37</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1252.76</t>
+          <t>1004.35</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1271.34</t>
+          <t>1030.08</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2294.21</t>
+          <t>1968.88</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2215.04</t>
+          <t>1845.99</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1882.84</t>
+          <t>1565.26</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1771.03</t>
+          <t>1409.94</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1177.14</t>
+          <t>912.92</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1169.02</t>
+          <t>911.33</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1256.99</t>
+          <t>1004.73</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1272.76</t>
+          <t>1026.32</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2289.43</t>
+          <t>1960.02</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2213.12</t>
+          <t>1838.56</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1873.21</t>
+          <t>1547.61</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1766.98</t>
+          <t>1400.67</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1176.78</t>
+          <t>910.90</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1168.78</t>
+          <t>909.42</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1255.39</t>
+          <t>1001.20</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1269.98</t>
+          <t>1020.92</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2284.88</t>
+          <t>1953.13</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>2209.37</t>
+          <t>1831.88</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1868.08</t>
+          <t>1537.96</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>1763.29</t>
+          <t>1393.23</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1175.85</t>
+          <t>908.54</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1167.90</t>
+          <t>907.07</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1253.99</t>
+          <t>998.23</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1268.20</t>
+          <t>1017.20</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2281.52</t>
+          <t>1947.28</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2206.09</t>
+          <t>1826.11</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>1864.95</t>
+          <t>1531.00</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>1759.45</t>
+          <t>1387.46</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1175.13</t>
+          <t>906.18</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1167.17</t>
+          <t>904.65</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1253.08</t>
+          <t>995.63</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1267.18</t>
+          <t>1014.21</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2280.60</t>
+          <t>1942.09</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2212.55</t>
+          <t>1821.47</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>1862.98</t>
+          <t>1526.92</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1759.97</t>
+          <t>1381.58</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1174.59</t>
+          <t>903.29</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1166.52</t>
+          <t>901.56</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1252.63</t>
+          <t>992.81</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1266.52</t>
+          <t>1010.87</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>2282.40</t>
+          <t>1939.86</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>2221.61</t>
+          <t>1822.87</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>1863.90</t>
+          <t>1520.02</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>1760.24</t>
+          <t>1375.56</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1177.22</t>
+          <t>901.33</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1168.83</t>
+          <t>899.12</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1254.44</t>
+          <t>990.38</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1267.55</t>
+          <t>1007.19</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>2363.93</t>
+          <t>2008.72</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>2297.16</t>
+          <t>1889.82</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>1881.42</t>
+          <t>1524.40</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>1763.80</t>
+          <t>1380.08</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>1236.94</t>
+          <t>950.69</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>1227.54</t>
+          <t>947.38</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1251.93</t>
+          <t>976.06</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1302.10</t>
+          <t>1032.04</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>2821.08</t>
+          <t>2487.06</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>2921.28</t>
+          <t>2449.32</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>2448.27</t>
+          <t>2076.99</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>2263.48</t>
+          <t>1821.48</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>1630.88</t>
+          <t>1272.41</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>1640.21</t>
+          <t>1282.24</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1918.54</t>
+          <t>1623.30</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1934.10</t>
+          <t>1638.01</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1838.71</t>
+          <t>1948.76</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1763.41</t>
+          <t>1776.89</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1717.09</t>
+          <t>1569.22</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1344.74</t>
+          <t>1369.67</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1002.08</t>
+          <t>1039.72</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>989.43</t>
+          <t>1028.78</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1124.96</t>
+          <t>1164.51</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1114.34</t>
+          <t>1162.55</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2572.75</t>
+          <t>2719.08</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2444.59</t>
+          <t>2478.07</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2079.36</t>
+          <t>2150.30</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1844.09</t>
+          <t>1847.84</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1289.52</t>
+          <t>1294.48</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1270.50</t>
+          <t>1276.38</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1449.52</t>
+          <t>1476.39</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1465.83</t>
+          <t>1494.16</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2572.87</t>
+          <t>2722.20</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2463.53</t>
+          <t>2506.74</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2036.10</t>
+          <t>2132.75</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>1853.72</t>
+          <t>1852.31</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1302.48</t>
+          <t>1300.73</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1283.77</t>
+          <t>1283.46</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1463.38</t>
+          <t>1474.97</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1474.64</t>
+          <t>1485.68</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2585.21</t>
+          <t>2706.98</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2462.05</t>
+          <t>2517.45</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2029.38</t>
+          <t>2118.10</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>1842.34</t>
+          <t>1845.14</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1253.19</t>
+          <t>1294.22</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1244.94</t>
+          <t>1277.68</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1462.21</t>
+          <t>1468.87</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1472.85</t>
+          <t>1483.43</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>2578.42</t>
+          <t>2695.49</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2457.27</t>
+          <t>2512.38</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2022.66</t>
+          <t>2109.59</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>1831.45</t>
+          <t>1846.79</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1252.47</t>
+          <t>1293.15</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1241.07</t>
+          <t>1269.79</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1432.82</t>
+          <t>1475.48</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1468.49</t>
+          <t>1481.08</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>2575.78</t>
+          <t>2685.27</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2451.78</t>
+          <t>2503.21</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2014.88</t>
+          <t>2114.36</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>1824.98</t>
+          <t>1844.06</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1251.62</t>
+          <t>1254.28</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1230.35</t>
+          <t>1236.36</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1429.96</t>
+          <t>1497.89</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1438.61</t>
+          <t>1509.17</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>2577.94</t>
+          <t>2679.01</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2448.09</t>
+          <t>2497.69</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2008.49</t>
+          <t>2094.11</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1824.11</t>
+          <t>1848.64</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1259.44</t>
+          <t>1253.68</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1238.54</t>
+          <t>1234.01</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>1428.57</t>
+          <t>1454.73</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1437.62</t>
+          <t>1464.33</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>2576.30</t>
+          <t>2678.04</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>2449.50</t>
+          <t>2500.33</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2007.27</t>
+          <t>2093.68</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>1824.69</t>
+          <t>1854.27</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1263.04</t>
+          <t>1262.19</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1242.24</t>
+          <t>1243.90</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1430.65</t>
+          <t>1456.52</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1439.34</t>
+          <t>1465.97</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>2617.97</t>
+          <t>2762.47</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>2530.50</t>
+          <t>2580.64</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2038.61</t>
+          <t>2110.32</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>1836.43</t>
+          <t>1880.31</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>1332.86</t>
+          <t>1336.01</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1311.79</t>
+          <t>1316.57</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>1432.11</t>
+          <t>1442.25</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>1476.76</t>
+          <t>1508.34</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>3498.45</t>
+          <t>3566.90</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3224.53</t>
+          <t>3293.41</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>2721.31</t>
+          <t>2807.14</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>2415.13</t>
+          <t>2432.32</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>1835.68</t>
+          <t>1773.49</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>1832.18</t>
+          <t>1766.09</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2225.52</t>
+          <t>2308.79</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2244.82</t>
+          <t>2304.00</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
